--- a/3-course-6-semester/operations-research/course-work/Бронников ПМ-1901 - Курсовая работа.xlsx
+++ b/3-course-6-semester/operations-research/course-work/Бронников ПМ-1901 - Курсовая работа.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Documents\github\university\3-course-6-semester\operations-research\course-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2555725B-393B-41CE-B758-409A95B3987E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524427BE-7E86-41C3-92CE-79F374E72F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рюкзак" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Задача о рюкзаке</t>
   </si>
@@ -212,20 +212,39 @@
     <t>r(t)</t>
   </si>
   <si>
-    <t>S(t)</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>a(t)</t>
+    <t>u(t)</t>
+  </si>
+  <si>
+    <t>s(t)</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Матрица функции Беллмана</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +295,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,8 +369,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -895,11 +944,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1012,11 +1217,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1032,6 +1287,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>246784</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8EA844-AEAF-DC4F-B436-7B2654F419A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749011" y="1736148"/>
+          <a:ext cx="484909" cy="415636"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1300,7 +1610,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C437A2DE-9EA0-457A-A6EA-CA990C889876}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,131 +2243,783 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142A7C0C-BB28-46D8-976D-B40E542371AE}">
-  <dimension ref="B2:L5"/>
+  <dimension ref="D4:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.7109375" style="64"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D4" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="64">
+      <c r="E4" s="70">
         <v>0</v>
       </c>
-      <c r="D2" s="64">
+      <c r="F4" s="70">
         <v>1</v>
       </c>
-      <c r="E2" s="64">
+      <c r="G4" s="70">
         <v>2</v>
       </c>
-      <c r="F2" s="64">
+      <c r="H4" s="70">
         <v>3</v>
       </c>
-      <c r="G2" s="64">
+      <c r="I4" s="70">
         <v>4</v>
       </c>
-      <c r="H2" s="64">
+      <c r="J4" s="70">
         <v>5</v>
       </c>
-      <c r="I2" s="64">
+      <c r="K4" s="70">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L4" s="70">
+        <v>7</v>
+      </c>
+      <c r="M4" s="70">
+        <v>8</v>
+      </c>
+      <c r="N4" s="70">
+        <v>9</v>
+      </c>
+      <c r="O4" s="70">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D5" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="70">
+        <v>31</v>
+      </c>
+      <c r="F5" s="70">
+        <v>30</v>
+      </c>
+      <c r="G5" s="70">
+        <v>28</v>
+      </c>
+      <c r="H5" s="70">
+        <v>28</v>
+      </c>
+      <c r="I5" s="70">
+        <v>27</v>
+      </c>
+      <c r="J5" s="70">
+        <v>26</v>
+      </c>
+      <c r="K5" s="70">
+        <v>26</v>
+      </c>
+      <c r="L5" s="70">
+        <v>25</v>
+      </c>
+      <c r="M5" s="70">
+        <v>24</v>
+      </c>
+      <c r="N5" s="70">
+        <v>24</v>
+      </c>
+      <c r="O5" s="70">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D6" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="L2">
+      <c r="E6" s="70">
+        <v>8</v>
+      </c>
+      <c r="F6" s="70">
+        <v>9</v>
+      </c>
+      <c r="G6" s="70">
+        <v>9</v>
+      </c>
+      <c r="H6" s="70">
+        <v>10</v>
+      </c>
+      <c r="I6" s="70">
+        <v>10</v>
+      </c>
+      <c r="J6" s="70">
+        <v>10</v>
+      </c>
+      <c r="K6" s="70">
+        <v>11</v>
+      </c>
+      <c r="L6" s="70">
+        <v>12</v>
+      </c>
+      <c r="M6" s="70">
+        <v>14</v>
+      </c>
+      <c r="N6" s="70">
+        <v>17</v>
+      </c>
+      <c r="O6" s="70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="73"/>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D10" s="65"/>
+      <c r="E10" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="74">
+        <v>0</v>
+      </c>
+      <c r="G10" s="74">
+        <v>1</v>
+      </c>
+      <c r="H10" s="74">
+        <v>2</v>
+      </c>
+      <c r="I10" s="74">
+        <v>3</v>
+      </c>
+      <c r="J10" s="74">
+        <v>4</v>
+      </c>
+      <c r="K10" s="74">
+        <v>5</v>
+      </c>
+      <c r="L10" s="74">
+        <v>6</v>
+      </c>
+      <c r="M10" s="74">
+        <v>7</v>
+      </c>
+      <c r="N10" s="74">
+        <v>8</v>
+      </c>
+      <c r="O10" s="74">
+        <v>9</v>
+      </c>
+      <c r="P10" s="75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="D11" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="77"/>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D12" s="78">
+        <v>10</v>
+      </c>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,E$5-E$6)</f>
+        <v>23</v>
+      </c>
+      <c r="G12" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,F$5-F$6)</f>
+        <v>21</v>
+      </c>
+      <c r="H12" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,G$5-G$6)</f>
+        <v>19</v>
+      </c>
+      <c r="I12" s="81">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,H$5-H$6)</f>
+        <v>18</v>
+      </c>
+      <c r="J12" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,I$5-I$6)</f>
+        <v>17</v>
+      </c>
+      <c r="K12" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,J$5-J$6)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="64">
+      <c r="L12" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,K$5-K$6)</f>
         <v>15</v>
       </c>
-      <c r="D3" s="64">
-        <v>14</v>
-      </c>
-      <c r="E3" s="64">
+      <c r="M12" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,L$5-L$6)</f>
         <v>13</v>
       </c>
-      <c r="F3" s="64">
-        <v>13</v>
-      </c>
-      <c r="G3" s="64">
-        <v>12</v>
-      </c>
-      <c r="H3" s="64">
-        <v>12</v>
-      </c>
-      <c r="I3" s="64">
+      <c r="N12" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,M$5-M$6)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="O12" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,N$5-N$6)</f>
+        <v>9</v>
+      </c>
+      <c r="P12" s="82">
+        <f>MAX($R$4-$R$5+$E$5-$E$6,O$5-O$6)</f>
+        <v>9</v>
+      </c>
+      <c r="Q12" s="69">
+        <f>$R$4-$R$5+$E$5-$E$6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D13" s="78">
+        <v>9</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,E$5-E$6+G12)</f>
+        <v>44</v>
+      </c>
+      <c r="G13" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,F$5-F$6+H12)</f>
+        <v>40</v>
+      </c>
+      <c r="H13" s="81">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,G$5-G$6+I12)</f>
+        <v>37</v>
+      </c>
+      <c r="I13" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,H$5-H$6+J12)</f>
+        <v>35</v>
+      </c>
+      <c r="J13" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,I$5-I$6+K12)</f>
         <v>33</v>
       </c>
-      <c r="C4" s="64">
-        <v>16</v>
-      </c>
-      <c r="D4" s="64">
-        <v>14</v>
-      </c>
-      <c r="E4" s="64">
-        <v>13</v>
-      </c>
-      <c r="F4" s="64">
-        <v>11</v>
-      </c>
-      <c r="G4" s="64">
-        <v>10</v>
-      </c>
-      <c r="H4" s="64">
+      <c r="K13" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,J$5-J$6+L12)</f>
+        <v>31</v>
+      </c>
+      <c r="L13" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,K$5-K$6+M12)</f>
+        <v>30</v>
+      </c>
+      <c r="M13" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,L$5-L$6+N12)</f>
+        <v>30</v>
+      </c>
+      <c r="N13" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,M$5-M$6+O12)</f>
+        <v>30</v>
+      </c>
+      <c r="O13" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,N$5-N$6+P12)</f>
+        <v>30</v>
+      </c>
+      <c r="P13" s="82">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G$12,O$5-O$6+Q12)</f>
+        <v>30</v>
+      </c>
+      <c r="Q13" s="69">
+        <f>$R$4-$R$5+$E$5-$E$6+$G12</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D14" s="78">
         <v>8</v>
       </c>
-      <c r="I4" s="64">
+      <c r="E14" s="79"/>
+      <c r="F14" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,E$5-E$6+G13)</f>
+        <v>63</v>
+      </c>
+      <c r="G14" s="81">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,F$5-F$6+H13)</f>
+        <v>58</v>
+      </c>
+      <c r="H14" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,G$5-G$6+I13)</f>
+        <v>54</v>
+      </c>
+      <c r="I14" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,H$5-H$6+J13)</f>
+        <v>51</v>
+      </c>
+      <c r="J14" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,I$5-I$6+K13)</f>
+        <v>49</v>
+      </c>
+      <c r="K14" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,J$5-J$6+L13)</f>
+        <v>49</v>
+      </c>
+      <c r="L14" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,K$5-K$6+M13)</f>
+        <v>49</v>
+      </c>
+      <c r="M14" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,L$5-L$6+N13)</f>
+        <v>49</v>
+      </c>
+      <c r="N14" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,M$5-M$6+O13)</f>
+        <v>49</v>
+      </c>
+      <c r="O14" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,N$5-N$6+P13)</f>
+        <v>49</v>
+      </c>
+      <c r="P14" s="82">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G13,O$5-O$6+Q13)</f>
+        <v>49</v>
+      </c>
+      <c r="Q14" s="69">
+        <f t="shared" ref="Q14:Q21" si="0">$R$4-$R$5+$E$5-$E$6+$G13</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D15" s="78">
+        <v>7</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="81">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,E$5-E$6+G14)</f>
+        <v>81</v>
+      </c>
+      <c r="G15" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,F$5-F$6+H14)</f>
+        <v>75</v>
+      </c>
+      <c r="H15" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,G$5-G$6+I14)</f>
+        <v>70</v>
+      </c>
+      <c r="I15" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,H$5-H$6+J14)</f>
+        <v>67</v>
+      </c>
+      <c r="J15" s="83">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,I$5-I$6+K14)</f>
+        <v>67</v>
+      </c>
+      <c r="K15" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,J$5-J$6+L14)</f>
+        <v>67</v>
+      </c>
+      <c r="L15" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,K$5-K$6+M14)</f>
+        <v>67</v>
+      </c>
+      <c r="M15" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,L$5-L$6+N14)</f>
+        <v>67</v>
+      </c>
+      <c r="N15" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,M$5-M$6+O14)</f>
+        <v>67</v>
+      </c>
+      <c r="O15" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,N$5-N$6+P14)</f>
+        <v>67</v>
+      </c>
+      <c r="P15" s="82">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G14,O$5-O$6+Q14)</f>
+        <v>67</v>
+      </c>
+      <c r="Q15" s="69">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D16" s="78">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="64">
-        <f t="shared" ref="D5:I5" si="0">D4-$L$2+$C$3</f>
-        <v>13</v>
-      </c>
-      <c r="E5" s="64">
+      <c r="E16" s="79"/>
+      <c r="F16" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,E$5-E$6+G15)</f>
+        <v>98</v>
+      </c>
+      <c r="G16" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,F$5-F$6+H15)</f>
+        <v>91</v>
+      </c>
+      <c r="H16" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,G$5-G$6+I15)</f>
+        <v>86</v>
+      </c>
+      <c r="I16" s="81">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,H$5-H$6+J15)</f>
+        <v>85</v>
+      </c>
+      <c r="J16" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,I$5-I$6+K15)</f>
+        <v>84</v>
+      </c>
+      <c r="K16" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,J$5-J$6+L15)</f>
+        <v>84</v>
+      </c>
+      <c r="L16" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,K$5-K$6+M15)</f>
+        <v>84</v>
+      </c>
+      <c r="M16" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,L$5-L$6+N15)</f>
+        <v>84</v>
+      </c>
+      <c r="N16" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,M$5-M$6+O15)</f>
+        <v>84</v>
+      </c>
+      <c r="O16" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,N$5-N$6+P15)</f>
+        <v>84</v>
+      </c>
+      <c r="P16" s="82">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G15,O$5-O$6+Q15)</f>
+        <v>84</v>
+      </c>
+      <c r="Q16" s="69">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F5" s="64">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17" s="78">
+        <v>5</v>
+      </c>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,E$5-E$6+G16)</f>
+        <v>114</v>
+      </c>
+      <c r="G17" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,F$5-F$6+H16)</f>
+        <v>107</v>
+      </c>
+      <c r="H17" s="81">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,G$5-G$6+I16)</f>
+        <v>104</v>
+      </c>
+      <c r="I17" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,H$5-H$6+J16)</f>
+        <v>102</v>
+      </c>
+      <c r="J17" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,I$5-I$6+K16)</f>
+        <v>101</v>
+      </c>
+      <c r="K17" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,J$5-J$6+L16)</f>
+        <v>100</v>
+      </c>
+      <c r="L17" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,K$5-K$6+M16)</f>
+        <v>100</v>
+      </c>
+      <c r="M17" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,L$5-L$6+N16)</f>
+        <v>100</v>
+      </c>
+      <c r="N17" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,M$5-M$6+O16)</f>
+        <v>100</v>
+      </c>
+      <c r="O17" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,N$5-N$6+P16)</f>
+        <v>100</v>
+      </c>
+      <c r="P17" s="82">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G16,O$5-O$6+Q16)</f>
+        <v>100</v>
+      </c>
+      <c r="Q17" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G5" s="64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18" s="78">
+        <v>4</v>
+      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,E$5-E$6+G17)</f>
+        <v>130</v>
+      </c>
+      <c r="G18" s="81">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,F$5-F$6+H17)</f>
+        <v>125</v>
+      </c>
+      <c r="H18" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,G$5-G$6+I17)</f>
+        <v>121</v>
+      </c>
+      <c r="I18" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,H$5-H$6+J17)</f>
+        <v>119</v>
+      </c>
+      <c r="J18" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,I$5-I$6+K17)</f>
+        <v>117</v>
+      </c>
+      <c r="K18" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,J$5-J$6+L17)</f>
+        <v>116</v>
+      </c>
+      <c r="L18" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,K$5-K$6+M17)</f>
+        <v>116</v>
+      </c>
+      <c r="M18" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,L$5-L$6+N17)</f>
+        <v>116</v>
+      </c>
+      <c r="N18" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,M$5-M$6+O17)</f>
+        <v>116</v>
+      </c>
+      <c r="O18" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,N$5-N$6+P17)</f>
+        <v>116</v>
+      </c>
+      <c r="P18" s="82">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G17,O$5-O$6+Q17)</f>
+        <v>116</v>
+      </c>
+      <c r="Q18" s="69">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H5" s="64">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="78">
+        <v>3</v>
+      </c>
+      <c r="E19" s="79"/>
+      <c r="F19" s="81">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,E$5-E$6+G18)</f>
+        <v>148</v>
+      </c>
+      <c r="G19" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,F$5-F$6+H18)</f>
+        <v>142</v>
+      </c>
+      <c r="H19" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,G$5-G$6+I18)</f>
+        <v>138</v>
+      </c>
+      <c r="I19" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,H$5-H$6+J18)</f>
+        <v>135</v>
+      </c>
+      <c r="J19" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,I$5-I$6+K18)</f>
+        <v>134</v>
+      </c>
+      <c r="K19" s="83">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,J$5-J$6+L18)</f>
+        <v>134</v>
+      </c>
+      <c r="L19" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,K$5-K$6+M18)</f>
+        <v>134</v>
+      </c>
+      <c r="M19" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,L$5-L$6+N18)</f>
+        <v>134</v>
+      </c>
+      <c r="N19" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,M$5-M$6+O18)</f>
+        <v>134</v>
+      </c>
+      <c r="O19" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,N$5-N$6+P18)</f>
+        <v>134</v>
+      </c>
+      <c r="P19" s="82">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G18,O$5-O$6+Q18)</f>
+        <v>134</v>
+      </c>
+      <c r="Q19" s="69">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I5" s="64">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D20" s="78">
+        <v>2</v>
+      </c>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,E$5-E$6+G19)</f>
+        <v>165</v>
+      </c>
+      <c r="G20" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,F$5-F$6+H19)</f>
+        <v>159</v>
+      </c>
+      <c r="H20" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,G$5-G$6+I19)</f>
+        <v>154</v>
+      </c>
+      <c r="I20" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,H$5-H$6+J19)</f>
+        <v>152</v>
+      </c>
+      <c r="J20" s="81">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,I$5-I$6+K19)</f>
+        <v>151</v>
+      </c>
+      <c r="K20" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,J$5-J$6+L19)</f>
+        <v>151</v>
+      </c>
+      <c r="L20" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,K$5-K$6+M19)</f>
+        <v>151</v>
+      </c>
+      <c r="M20" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,L$5-L$6+N19)</f>
+        <v>151</v>
+      </c>
+      <c r="N20" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,M$5-M$6+O19)</f>
+        <v>151</v>
+      </c>
+      <c r="O20" s="80">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,N$5-N$6+P19)</f>
+        <v>151</v>
+      </c>
+      <c r="P20" s="82">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G19,O$5-O$6+Q19)</f>
+        <v>151</v>
+      </c>
+      <c r="Q20" s="69">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="84">
+        <v>1</v>
+      </c>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,E$5-E$6+G20)</f>
+        <v>182</v>
+      </c>
+      <c r="G21" s="86">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,F$5-F$6+H20)</f>
+        <v>175</v>
+      </c>
+      <c r="H21" s="86">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,G$5-G$6+I20)</f>
+        <v>171</v>
+      </c>
+      <c r="I21" s="87">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,H$5-H$6+J20)</f>
+        <v>169</v>
+      </c>
+      <c r="J21" s="86">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,I$5-I$6+K20)</f>
+        <v>168</v>
+      </c>
+      <c r="K21" s="86">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,J$5-J$6+L20)</f>
+        <v>168</v>
+      </c>
+      <c r="L21" s="86">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,K$5-K$6+M20)</f>
+        <v>168</v>
+      </c>
+      <c r="M21" s="86">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,L$5-L$6+N20)</f>
+        <v>168</v>
+      </c>
+      <c r="N21" s="86">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,M$5-M$6+O20)</f>
+        <v>168</v>
+      </c>
+      <c r="O21" s="86">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,N$5-N$6+P20)</f>
+        <v>168</v>
+      </c>
+      <c r="P21" s="88">
+        <f>MAX($R$4-$R$5+$E$5-$E$6+$G20,O$5-O$6+Q20)</f>
+        <v>168</v>
+      </c>
+      <c r="Q21" s="69">
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/3-course-6-semester/operations-research/course-work/Бронников ПМ-1901 - Курсовая работа.xlsx
+++ b/3-course-6-semester/operations-research/course-work/Бронников ПМ-1901 - Курсовая работа.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Documents\github\university\3-course-6-semester\operations-research\course-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8529851C-BBA7-471B-85E8-F2017ED3641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B066C2-63C9-46FE-B137-2822404DECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="878" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="878" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тит. лист" sheetId="7" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1118,7 +1118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2235,12 +2235,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2265,15 +2259,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2293,12 +2278,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2315,7 +2294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2377,48 +2356,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2468,18 +2414,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2499,24 +2433,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2535,23 +2451,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2559,31 +2460,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2591,20 +2468,8 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2618,14 +2483,120 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2633,33 +2604,62 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3117,245 +3117,245 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:P21"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="162"/>
+      <c r="A1" s="121"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="164"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
     </row>
     <row r="5" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="166"/>
+      <c r="A6" s="123"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
+      <c r="A7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
     </row>
     <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="168"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="121"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
+      <c r="A12" s="121"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="171" t="s">
+      <c r="A14" s="125"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171" t="s">
+      <c r="A15" s="125"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="170"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171" t="s">
+      <c r="A16" s="125"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="170"/>
-      <c r="B17" s="169" t="s">
+      <c r="A17" s="125"/>
+      <c r="B17" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="172"/>
-      <c r="C18" s="171" t="s">
+      <c r="A18" s="127"/>
+      <c r="C18" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="171"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
     </row>
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
-      <c r="B19" s="169" t="s">
+      <c r="A19" s="127"/>
+      <c r="B19" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="169"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="171" t="s">
+      <c r="C20" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="171"/>
+      <c r="D20" s="126"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="126" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="171" t="s">
+      <c r="C22" s="126" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3378,405 +3378,405 @@
   </sheetPr>
   <dimension ref="D5:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="21"/>
-    <col min="3" max="3" width="11" style="21" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="21"/>
-    <col min="7" max="7" width="10.5703125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="11" style="21" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="21"/>
-    <col min="13" max="14" width="11.140625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="21"/>
-    <col min="16" max="16" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="11.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="19"/>
+    <col min="3" max="3" width="11" style="19" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="10.5703125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="11" style="19" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="19"/>
+    <col min="13" max="14" width="11.140625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="19"/>
+    <col min="16" max="16" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:17" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="E5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="E5" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
     </row>
     <row r="6" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="4:17" ht="21" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="E7" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="28"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="26"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="3">
         <v>165</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="4:17" ht="21" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="28"/>
-      <c r="M10" s="23" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="23"/>
+      <c r="M10" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="25"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="28"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="28"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="23"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="26"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="M12" s="20" t="s">
+      <c r="H12" s="23"/>
+      <c r="M12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="28"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="1">
         <v>23</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <v>92</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="M13" s="34" t="s">
+      <c r="H13" s="23"/>
+      <c r="M13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="N13" s="5">
         <v>1</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="30">
         <f>N13*F13</f>
         <v>23</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="31">
         <f>N13*G13</f>
         <v>92</v>
       </c>
-      <c r="Q13" s="28"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1">
         <v>31</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="11">
         <v>57</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="M14" s="31" t="s">
+      <c r="H14" s="23"/>
+      <c r="M14" s="26" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="4">
         <v>1</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="27">
         <f>N14*F14</f>
         <v>31</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="28">
         <f>N14*G14</f>
         <v>57</v>
       </c>
-      <c r="Q14" s="28"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1">
         <v>29</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <v>49</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="M15" s="31" t="s">
+      <c r="H15" s="23"/>
+      <c r="M15" s="26" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="4">
         <v>1</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="27">
         <f>N15*F15</f>
         <v>29</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="28">
         <f>N15*G15</f>
         <v>49</v>
       </c>
-      <c r="Q15" s="28"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1">
         <v>44</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
         <v>68</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="M16" s="38" t="s">
+      <c r="H16" s="32"/>
+      <c r="M16" s="33" t="s">
         <v>9</v>
       </c>
       <c r="N16" s="6">
         <v>1</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="34">
         <f>N16*F16</f>
         <v>44</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="35">
         <f>N16*G16</f>
         <v>68</v>
       </c>
-      <c r="Q16" s="28"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="26"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="26" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="1">
         <v>53</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="11">
         <v>60</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="M17" s="31" t="s">
+      <c r="H17" s="32"/>
+      <c r="M17" s="26" t="s">
         <v>41</v>
       </c>
       <c r="N17" s="6">
         <v>0</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="34">
         <f t="shared" ref="O17:O22" si="0">N17*F17</f>
         <v>0</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="35">
         <f t="shared" ref="P17:P22" si="1">N17*G17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="37"/>
+      <c r="Q17" s="32"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="26"/>
-      <c r="E18" s="31" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="26" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="1">
         <v>38</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <v>43</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="M18" s="38" t="s">
+      <c r="H18" s="23"/>
+      <c r="M18" s="33" t="s">
         <v>42</v>
       </c>
       <c r="N18" s="6">
         <v>1</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="34">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="35">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="Q18" s="28"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="1">
         <v>63</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <v>67</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="M19" s="31" t="s">
+      <c r="H19" s="23"/>
+      <c r="M19" s="26" t="s">
         <v>43</v>
       </c>
       <c r="N19" s="6">
         <v>0</v>
       </c>
-      <c r="O19" s="39">
+      <c r="O19" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="28"/>
+      <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="1">
         <v>85</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <v>84</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="M20" s="38" t="s">
+      <c r="H20" s="23"/>
+      <c r="M20" s="33" t="s">
         <v>44</v>
       </c>
       <c r="N20" s="6">
         <v>0</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="28"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="26" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="1">
         <v>89</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="11">
         <v>87</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="M21" s="31" t="s">
+      <c r="H21" s="23"/>
+      <c r="M21" s="26" t="s">
         <v>45</v>
       </c>
       <c r="N21" s="6">
         <v>0</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O21" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="28"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="7"/>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <v>82</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>72</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="M22" s="43" t="s">
+      <c r="H22" s="37"/>
+      <c r="M22" s="38" t="s">
         <v>46</v>
       </c>
       <c r="N22" s="6">
         <v>0</v>
       </c>
-      <c r="O22" s="39">
+      <c r="O22" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="28"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="4:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="7"/>
-      <c r="M23" s="44" t="s">
+      <c r="M23" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="45"/>
-      <c r="O23" s="46">
+      <c r="N23" s="139"/>
+      <c r="O23" s="39">
         <f>SUM(O13:O22)</f>
         <v>165</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="40">
         <f>SUM(P13:P22)</f>
         <v>309</v>
       </c>
-      <c r="Q23" s="42"/>
+      <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3815,50 +3815,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="43" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="43" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3878,30 +3878,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="47">
         <v>309</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="47">
         <v>309</v>
       </c>
     </row>
@@ -3911,189 +3911,189 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="55">
-        <v>1</v>
-      </c>
-      <c r="E21" s="55">
-        <v>1</v>
-      </c>
-      <c r="F21" s="53" t="s">
+      <c r="D21" s="48">
+        <v>1</v>
+      </c>
+      <c r="E21" s="48">
+        <v>1</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="55">
-        <v>1</v>
-      </c>
-      <c r="E22" s="55">
-        <v>1</v>
-      </c>
-      <c r="F22" s="53" t="s">
+      <c r="D22" s="48">
+        <v>1</v>
+      </c>
+      <c r="E22" s="48">
+        <v>1</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="55">
-        <v>1</v>
-      </c>
-      <c r="E23" s="55">
-        <v>1</v>
-      </c>
-      <c r="F23" s="53" t="s">
+      <c r="D23" s="48">
+        <v>1</v>
+      </c>
+      <c r="E23" s="48">
+        <v>1</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="55">
-        <v>1</v>
-      </c>
-      <c r="E24" s="55">
-        <v>1</v>
-      </c>
-      <c r="F24" s="53" t="s">
+      <c r="D24" s="48">
+        <v>1</v>
+      </c>
+      <c r="E24" s="48">
+        <v>1</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="55">
-        <v>0</v>
-      </c>
-      <c r="E25" s="55">
-        <v>0</v>
-      </c>
-      <c r="F25" s="53" t="s">
+      <c r="D25" s="48">
+        <v>0</v>
+      </c>
+      <c r="E25" s="48">
+        <v>0</v>
+      </c>
+      <c r="F25" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="55">
-        <v>1</v>
-      </c>
-      <c r="E26" s="55">
-        <v>1</v>
-      </c>
-      <c r="F26" s="53" t="s">
+      <c r="D26" s="48">
+        <v>1</v>
+      </c>
+      <c r="E26" s="48">
+        <v>1</v>
+      </c>
+      <c r="F26" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="55">
-        <v>0</v>
-      </c>
-      <c r="E27" s="55">
-        <v>0</v>
-      </c>
-      <c r="F27" s="53" t="s">
+      <c r="D27" s="48">
+        <v>0</v>
+      </c>
+      <c r="E27" s="48">
+        <v>0</v>
+      </c>
+      <c r="F27" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="55">
-        <v>0</v>
-      </c>
-      <c r="E28" s="55">
-        <v>0</v>
-      </c>
-      <c r="F28" s="53" t="s">
+      <c r="D28" s="48">
+        <v>0</v>
+      </c>
+      <c r="E28" s="48">
+        <v>0</v>
+      </c>
+      <c r="F28" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="55">
-        <v>0</v>
-      </c>
-      <c r="E29" s="55">
-        <v>0</v>
-      </c>
-      <c r="F29" s="53" t="s">
+      <c r="D29" s="48">
+        <v>0</v>
+      </c>
+      <c r="E29" s="48">
+        <v>0</v>
+      </c>
+      <c r="F29" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="54">
-        <v>0</v>
-      </c>
-      <c r="E30" s="54">
-        <v>0</v>
-      </c>
-      <c r="F30" s="51" t="s">
+      <c r="D30" s="47">
+        <v>0</v>
+      </c>
+      <c r="E30" s="47">
+        <v>0</v>
+      </c>
+      <c r="F30" s="44" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4103,54 +4103,54 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="48">
         <v>165</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="53">
+      <c r="G35" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4170,1061 +4170,1068 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="21"/>
-    <col min="2" max="4" width="3.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="3.7109375" style="21"/>
-    <col min="23" max="27" width="3.7109375" style="21" customWidth="1"/>
-    <col min="28" max="16384" width="3.7109375" style="21"/>
+    <col min="1" max="1" width="3.7109375" style="19"/>
+    <col min="2" max="4" width="3.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="3.7109375" style="19"/>
+    <col min="23" max="27" width="3.7109375" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="3.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AJ4" s="103"/>
+      <c r="AJ4" s="85"/>
     </row>
     <row r="5" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AJ5" s="103"/>
+      <c r="AJ5" s="85"/>
     </row>
     <row r="6" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AJ6" s="103"/>
+      <c r="AJ6" s="85"/>
     </row>
     <row r="7" spans="5:38" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="E7" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="103"/>
+      <c r="E7" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="85"/>
     </row>
     <row r="8" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AJ8" s="103"/>
+      <c r="AJ8" s="85"/>
     </row>
     <row r="9" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AJ9" s="103"/>
+      <c r="AJ9" s="85"/>
     </row>
     <row r="10" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AJ10" s="103"/>
+      <c r="AJ10" s="85"/>
     </row>
     <row r="11" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="104"/>
-      <c r="V12" s="84" t="s">
+      <c r="I12" s="86"/>
+      <c r="V12" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="86"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="154"/>
+      <c r="AB12" s="154"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="154"/>
+      <c r="AF12" s="154"/>
+      <c r="AG12" s="154"/>
+      <c r="AH12" s="154"/>
+      <c r="AI12" s="154"/>
+      <c r="AJ12" s="154"/>
+      <c r="AK12" s="155"/>
     </row>
     <row r="13" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="106" t="s">
+      <c r="F13" s="154"/>
+      <c r="G13" s="155"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="186">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="186">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="186">
+      <c r="X13" s="145">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="145">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="145">
         <v>2</v>
       </c>
-      <c r="AA13" s="186">
+      <c r="AA13" s="145">
         <v>3</v>
       </c>
-      <c r="AB13" s="186">
+      <c r="AB13" s="145">
         <v>4</v>
       </c>
-      <c r="AC13" s="186">
+      <c r="AC13" s="145">
         <v>5</v>
       </c>
-      <c r="AD13" s="186">
+      <c r="AD13" s="145">
         <v>6</v>
       </c>
-      <c r="AE13" s="186">
+      <c r="AE13" s="145">
         <v>7</v>
       </c>
-      <c r="AF13" s="186">
+      <c r="AF13" s="145">
         <v>8</v>
       </c>
-      <c r="AG13" s="186">
+      <c r="AG13" s="145">
         <v>9</v>
       </c>
-      <c r="AH13" s="186">
+      <c r="AH13" s="145">
         <v>10</v>
       </c>
-      <c r="AI13" s="186">
+      <c r="AI13" s="145">
         <v>11</v>
       </c>
-      <c r="AJ13" s="186">
+      <c r="AJ13" s="145">
         <v>12</v>
       </c>
-      <c r="AK13" s="188">
+      <c r="AK13" s="147">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="5:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="24">
         <v>13</v>
       </c>
-      <c r="V14" s="111" t="s">
+      <c r="V14" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="112"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="187"/>
-      <c r="Z14" s="187"/>
-      <c r="AA14" s="187"/>
-      <c r="AB14" s="187"/>
-      <c r="AC14" s="187"/>
-      <c r="AD14" s="187"/>
-      <c r="AE14" s="187"/>
-      <c r="AF14" s="187"/>
-      <c r="AG14" s="187"/>
-      <c r="AH14" s="187"/>
-      <c r="AI14" s="187"/>
-      <c r="AJ14" s="187"/>
-      <c r="AK14" s="189"/>
-      <c r="AL14" s="103"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="146"/>
+      <c r="Y14" s="146"/>
+      <c r="Z14" s="146"/>
+      <c r="AA14" s="146"/>
+      <c r="AB14" s="146"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="146"/>
+      <c r="AE14" s="146"/>
+      <c r="AF14" s="146"/>
+      <c r="AG14" s="146"/>
+      <c r="AH14" s="146"/>
+      <c r="AI14" s="146"/>
+      <c r="AJ14" s="146"/>
+      <c r="AK14" s="148"/>
+      <c r="AL14" s="85"/>
     </row>
     <row r="15" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="113">
-        <v>1</v>
-      </c>
-      <c r="F15" s="114">
+      <c r="E15" s="95">
+        <v>1</v>
+      </c>
+      <c r="F15" s="96">
         <v>3</v>
       </c>
-      <c r="G15" s="115">
-        <v>1</v>
-      </c>
-      <c r="I15" s="110" t="s">
+      <c r="G15" s="97">
+        <v>1</v>
+      </c>
+      <c r="I15" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="24">
         <v>5</v>
       </c>
-      <c r="V15" s="184">
-        <v>0</v>
-      </c>
-      <c r="W15" s="185"/>
-      <c r="X15" s="77" cm="1">
+      <c r="V15" s="156">
+        <v>0</v>
+      </c>
+      <c r="W15" s="157"/>
+      <c r="X15" s="70" cm="1">
         <f t="array" ref="X15">IF(OR($V15=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,X$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,X$13+1)),INDEX($X$15:$AK$20,$V15,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="77" cm="1">
+      <c r="Y15" s="70" cm="1">
         <f t="array" ref="Y15">IF(OR($V15=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,Y$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,Y$13+1)),INDEX($X$15:$AK$20,$V15,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="77" cm="1">
+      <c r="Z15" s="70" cm="1">
         <f t="array" ref="Z15">IF(OR($V15=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,Z$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,Z$13+1)),INDEX($X$15:$AK$20,$V15,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="77" cm="1">
+      <c r="AA15" s="70" cm="1">
         <f t="array" ref="AA15">IF(OR($V15=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AA$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AA$13+1)),INDEX($X$15:$AK$20,$V15,AA$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="77" cm="1">
+      <c r="AB15" s="70" cm="1">
         <f t="array" ref="AB15">IF(OR($V15=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AB$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AB$13+1)),INDEX($X$15:$AK$20,$V15,AB$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="77" cm="1">
+      <c r="AC15" s="70" cm="1">
         <f t="array" ref="AC15">IF(OR($V15=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AC$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AC$13+1)),INDEX($X$15:$AK$20,$V15,AC$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="77" cm="1">
+      <c r="AD15" s="70" cm="1">
         <f t="array" ref="AD15">IF(OR($V15=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AD$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AD$13+1)),INDEX($X$15:$AK$20,$V15,AD$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="77" cm="1">
+      <c r="AE15" s="70" cm="1">
         <f t="array" ref="AE15">IF(OR($V15=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AE$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AE$13+1)),INDEX($X$15:$AK$20,$V15,AE$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="77" cm="1">
+      <c r="AF15" s="70" cm="1">
         <f t="array" ref="AF15">IF(OR($V15=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AF$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AF$13+1)),INDEX($X$15:$AK$20,$V15,AF$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="77" cm="1">
+      <c r="AG15" s="70" cm="1">
         <f t="array" ref="AG15">IF(OR($V15=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AG$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AG$13+1)),INDEX($X$15:$AK$20,$V15,AG$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="77" cm="1">
+      <c r="AH15" s="70" cm="1">
         <f t="array" ref="AH15">IF(OR($V15=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AH$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AH$13+1)),INDEX($X$15:$AK$20,$V15,AH$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="77" cm="1">
+      <c r="AI15" s="70" cm="1">
         <f t="array" ref="AI15">IF(OR($V15=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AI$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AI$13+1)),INDEX($X$15:$AK$20,$V15,AI$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="77" cm="1">
+      <c r="AJ15" s="70" cm="1">
         <f t="array" ref="AJ15">IF(OR($V15=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AJ$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AJ$13+1)),INDEX($X$15:$AK$20,$V15,AJ$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="78" cm="1">
+      <c r="AK15" s="71" cm="1">
         <f t="array" ref="AK15">IF(OR($V15=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V15),MAX(INDEX($G$15:$G$19,$V15)+INDEX($X$15:$AK$20,$V15,AK$13+1-INDEX($F$15:$F$19,$V15)),INDEX($X$15:$AK$20,$V15,AK$13+1)),INDEX($X$15:$AK$20,$V15,AK$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="103"/>
+      <c r="AL15" s="85"/>
     </row>
     <row r="16" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="E16" s="116">
+      <c r="E16" s="98">
         <v>2</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="70">
         <v>4</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="71">
         <v>6</v>
       </c>
-      <c r="V16" s="184">
-        <v>1</v>
-      </c>
-      <c r="W16" s="185"/>
-      <c r="X16" s="77" cm="1">
+      <c r="V16" s="156">
+        <v>1</v>
+      </c>
+      <c r="W16" s="157"/>
+      <c r="X16" s="70" cm="1">
         <f t="array" ref="X16">IF(OR($V16=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,X$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,X$13+1)),INDEX($X$15:$AK$20,$V16,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="77" cm="1">
+      <c r="Y16" s="70" cm="1">
         <f t="array" ref="Y16">IF(OR($V16=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,Y$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,Y$13+1)),INDEX($X$15:$AK$20,$V16,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="77" cm="1">
+      <c r="Z16" s="70" cm="1">
         <f t="array" ref="Z16">IF(OR($V16=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,Z$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,Z$13+1)),INDEX($X$15:$AK$20,$V16,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="77" cm="1">
+      <c r="AA16" s="70" cm="1">
         <f t="array" ref="AA16">IF(OR($V16=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AA$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AA$13+1)),INDEX($X$15:$AK$20,$V16,AA$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AB16" s="77" cm="1">
+      <c r="AB16" s="70" cm="1">
         <f t="array" ref="AB16">IF(OR($V16=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AB$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AB$13+1)),INDEX($X$15:$AK$20,$V16,AB$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AC16" s="77" cm="1">
+      <c r="AC16" s="70" cm="1">
         <f t="array" ref="AC16">IF(OR($V16=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AC$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AC$13+1)),INDEX($X$15:$AK$20,$V16,AC$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AD16" s="77" cm="1">
+      <c r="AD16" s="70" cm="1">
         <f t="array" ref="AD16">IF(OR($V16=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AD$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AD$13+1)),INDEX($X$15:$AK$20,$V16,AD$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AE16" s="77" cm="1">
+      <c r="AE16" s="70" cm="1">
         <f t="array" ref="AE16">IF(OR($V16=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AE$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AE$13+1)),INDEX($X$15:$AK$20,$V16,AE$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AF16" s="77" cm="1">
+      <c r="AF16" s="70" cm="1">
         <f t="array" ref="AF16">IF(OR($V16=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AF$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AF$13+1)),INDEX($X$15:$AK$20,$V16,AF$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AG16" s="77" cm="1">
+      <c r="AG16" s="70" cm="1">
         <f t="array" ref="AG16">IF(OR($V16=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AG$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AG$13+1)),INDEX($X$15:$AK$20,$V16,AG$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AH16" s="77" cm="1">
+      <c r="AH16" s="70" cm="1">
         <f t="array" ref="AH16">IF(OR($V16=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AH$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AH$13+1)),INDEX($X$15:$AK$20,$V16,AH$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AI16" s="77" cm="1">
+      <c r="AI16" s="70" cm="1">
         <f t="array" ref="AI16">IF(OR($V16=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AI$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AI$13+1)),INDEX($X$15:$AK$20,$V16,AI$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AJ16" s="77" cm="1">
+      <c r="AJ16" s="70" cm="1">
         <f t="array" ref="AJ16">IF(OR($V16=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AJ$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AJ$13+1)),INDEX($X$15:$AK$20,$V16,AJ$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AK16" s="78" cm="1">
+      <c r="AK16" s="71" cm="1">
         <f t="array" ref="AK16">IF(OR($V16=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V16),MAX(INDEX($G$15:$G$19,$V16)+INDEX($X$15:$AK$20,$V16,AK$13+1-INDEX($F$15:$F$19,$V16)),INDEX($X$15:$AK$20,$V16,AK$13+1)),INDEX($X$15:$AK$20,$V16,AK$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AL16" s="103"/>
+      <c r="AL16" s="85"/>
     </row>
     <row r="17" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="E17" s="116">
+      <c r="E17" s="98">
         <v>3</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="70">
         <v>5</v>
       </c>
-      <c r="G17" s="78">
+      <c r="G17" s="71">
         <v>4</v>
       </c>
-      <c r="V17" s="184">
+      <c r="V17" s="156">
         <v>2</v>
       </c>
-      <c r="W17" s="185"/>
-      <c r="X17" s="77" cm="1">
+      <c r="W17" s="157"/>
+      <c r="X17" s="70" cm="1">
         <f t="array" ref="X17">IF(OR($V17=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,X$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,X$13+1)),INDEX($X$15:$AK$20,$V17,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="77" cm="1">
+      <c r="Y17" s="70" cm="1">
         <f t="array" ref="Y17">IF(OR($V17=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,Y$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,Y$13+1)),INDEX($X$15:$AK$20,$V17,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="77" cm="1">
+      <c r="Z17" s="70" cm="1">
         <f t="array" ref="Z17">IF(OR($V17=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,Z$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,Z$13+1)),INDEX($X$15:$AK$20,$V17,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="77" cm="1">
+      <c r="AA17" s="70" cm="1">
         <f t="array" ref="AA17">IF(OR($V17=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AA$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AA$13+1)),INDEX($X$15:$AK$20,$V17,AA$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AB17" s="77" cm="1">
+      <c r="AB17" s="70" cm="1">
         <f t="array" ref="AB17">IF(OR($V17=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AB$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AB$13+1)),INDEX($X$15:$AK$20,$V17,AB$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AC17" s="77" cm="1">
+      <c r="AC17" s="70" cm="1">
         <f t="array" ref="AC17">IF(OR($V17=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AC$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AC$13+1)),INDEX($X$15:$AK$20,$V17,AC$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AD17" s="77" cm="1">
+      <c r="AD17" s="70" cm="1">
         <f t="array" ref="AD17">IF(OR($V17=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AD$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AD$13+1)),INDEX($X$15:$AK$20,$V17,AD$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AE17" s="77" cm="1">
+      <c r="AE17" s="70" cm="1">
         <f t="array" ref="AE17">IF(OR($V17=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AE$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AE$13+1)),INDEX($X$15:$AK$20,$V17,AE$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AF17" s="77" cm="1">
+      <c r="AF17" s="70" cm="1">
         <f t="array" ref="AF17">IF(OR($V17=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AF$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AF$13+1)),INDEX($X$15:$AK$20,$V17,AF$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AG17" s="77" cm="1">
+      <c r="AG17" s="70" cm="1">
         <f t="array" ref="AG17">IF(OR($V17=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AG$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AG$13+1)),INDEX($X$15:$AK$20,$V17,AG$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AH17" s="77" cm="1">
+      <c r="AH17" s="70" cm="1">
         <f t="array" ref="AH17">IF(OR($V17=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AH$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AH$13+1)),INDEX($X$15:$AK$20,$V17,AH$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AI17" s="77" cm="1">
+      <c r="AI17" s="70" cm="1">
         <f t="array" ref="AI17">IF(OR($V17=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AI$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AI$13+1)),INDEX($X$15:$AK$20,$V17,AI$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AJ17" s="77" cm="1">
+      <c r="AJ17" s="70" cm="1">
         <f t="array" ref="AJ17">IF(OR($V17=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AJ$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AJ$13+1)),INDEX($X$15:$AK$20,$V17,AJ$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AK17" s="78" cm="1">
+      <c r="AK17" s="71" cm="1">
         <f t="array" ref="AK17">IF(OR($V17=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V17),MAX(INDEX($G$15:$G$19,$V17)+INDEX($X$15:$AK$20,$V17,AK$13+1-INDEX($F$15:$F$19,$V17)),INDEX($X$15:$AK$20,$V17,AK$13+1)),INDEX($X$15:$AK$20,$V17,AK$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AL17" s="103"/>
+      <c r="AL17" s="85"/>
     </row>
     <row r="18" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="E18" s="116">
+      <c r="E18" s="98">
         <v>4</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="70">
         <v>8</v>
       </c>
-      <c r="G18" s="78">
+      <c r="G18" s="71">
         <v>7</v>
       </c>
-      <c r="V18" s="184">
+      <c r="V18" s="156">
         <v>3</v>
       </c>
-      <c r="W18" s="185"/>
-      <c r="X18" s="77" cm="1">
+      <c r="W18" s="157"/>
+      <c r="X18" s="70" cm="1">
         <f t="array" ref="X18">IF(OR($V18=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,X$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,X$13+1)),INDEX($X$15:$AK$20,$V18,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="77" cm="1">
+      <c r="Y18" s="70" cm="1">
         <f t="array" ref="Y18">IF(OR($V18=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,Y$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,Y$13+1)),INDEX($X$15:$AK$20,$V18,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="77" cm="1">
+      <c r="Z18" s="70" cm="1">
         <f t="array" ref="Z18">IF(OR($V18=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,Z$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,Z$13+1)),INDEX($X$15:$AK$20,$V18,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="77" cm="1">
+      <c r="AA18" s="70" cm="1">
         <f t="array" ref="AA18">IF(OR($V18=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AA$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AA$13+1)),INDEX($X$15:$AK$20,$V18,AA$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AB18" s="77" cm="1">
+      <c r="AB18" s="70" cm="1">
         <f t="array" ref="AB18">IF(OR($V18=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AB$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AB$13+1)),INDEX($X$15:$AK$20,$V18,AB$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AC18" s="77" cm="1">
+      <c r="AC18" s="70" cm="1">
         <f t="array" ref="AC18">IF(OR($V18=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AC$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AC$13+1)),INDEX($X$15:$AK$20,$V18,AC$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AD18" s="77" cm="1">
+      <c r="AD18" s="70" cm="1">
         <f t="array" ref="AD18">IF(OR($V18=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AD$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AD$13+1)),INDEX($X$15:$AK$20,$V18,AD$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AE18" s="77" cm="1">
+      <c r="AE18" s="70" cm="1">
         <f t="array" ref="AE18">IF(OR($V18=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AE$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AE$13+1)),INDEX($X$15:$AK$20,$V18,AE$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AF18" s="77" cm="1">
+      <c r="AF18" s="70" cm="1">
         <f t="array" ref="AF18">IF(OR($V18=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AF$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AF$13+1)),INDEX($X$15:$AK$20,$V18,AF$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AG18" s="77" cm="1">
+      <c r="AG18" s="70" cm="1">
         <f t="array" ref="AG18">IF(OR($V18=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AG$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AG$13+1)),INDEX($X$15:$AK$20,$V18,AG$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AH18" s="77" cm="1">
+      <c r="AH18" s="70" cm="1">
         <f t="array" ref="AH18">IF(OR($V18=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AH$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AH$13+1)),INDEX($X$15:$AK$20,$V18,AH$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AI18" s="77" cm="1">
+      <c r="AI18" s="70" cm="1">
         <f t="array" ref="AI18">IF(OR($V18=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AI$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AI$13+1)),INDEX($X$15:$AK$20,$V18,AI$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AJ18" s="77" cm="1">
+      <c r="AJ18" s="70" cm="1">
         <f t="array" ref="AJ18">IF(OR($V18=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AJ$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AJ$13+1)),INDEX($X$15:$AK$20,$V18,AJ$13+1)))</f>
         <v>11</v>
       </c>
-      <c r="AK18" s="78" cm="1">
+      <c r="AK18" s="71" cm="1">
         <f t="array" ref="AK18">IF(OR($V18=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V18),MAX(INDEX($G$15:$G$19,$V18)+INDEX($X$15:$AK$20,$V18,AK$13+1-INDEX($F$15:$F$19,$V18)),INDEX($X$15:$AK$20,$V18,AK$13+1)),INDEX($X$15:$AK$20,$V18,AK$13+1)))</f>
         <v>11</v>
       </c>
-      <c r="AL18" s="103"/>
+      <c r="AL18" s="85"/>
     </row>
     <row r="19" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="117">
+      <c r="E19" s="99">
         <v>5</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="75">
         <v>9</v>
       </c>
-      <c r="G19" s="83">
+      <c r="G19" s="76">
         <v>6</v>
       </c>
-      <c r="V19" s="94">
+      <c r="V19" s="149">
         <v>4</v>
       </c>
-      <c r="W19" s="95"/>
-      <c r="X19" s="77" cm="1">
+      <c r="W19" s="150"/>
+      <c r="X19" s="70" cm="1">
         <f t="array" ref="X19">IF(OR($V19=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,X$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,X$13+1)),INDEX($X$15:$AK$20,$V19,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="77" cm="1">
+      <c r="Y19" s="70" cm="1">
         <f t="array" ref="Y19">IF(OR($V19=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,Y$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,Y$13+1)),INDEX($X$15:$AK$20,$V19,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="77" cm="1">
+      <c r="Z19" s="70" cm="1">
         <f t="array" ref="Z19">IF(OR($V19=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,Z$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,Z$13+1)),INDEX($X$15:$AK$20,$V19,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="77" cm="1">
+      <c r="AA19" s="70" cm="1">
         <f t="array" ref="AA19">IF(OR($V19=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AA$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AA$13+1)),INDEX($X$15:$AK$20,$V19,AA$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AB19" s="77" cm="1">
+      <c r="AB19" s="70" cm="1">
         <f t="array" ref="AB19">IF(OR($V19=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AB$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AB$13+1)),INDEX($X$15:$AK$20,$V19,AB$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AC19" s="77" cm="1">
+      <c r="AC19" s="70" cm="1">
         <f t="array" ref="AC19">IF(OR($V19=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AC$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AC$13+1)),INDEX($X$15:$AK$20,$V19,AC$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AD19" s="77" cm="1">
+      <c r="AD19" s="70" cm="1">
         <f t="array" ref="AD19">IF(OR($V19=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AD$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AD$13+1)),INDEX($X$15:$AK$20,$V19,AD$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AE19" s="77" cm="1">
+      <c r="AE19" s="70" cm="1">
         <f t="array" ref="AE19">IF(OR($V19=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AE$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AE$13+1)),INDEX($X$15:$AK$20,$V19,AE$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AF19" s="77" cm="1">
+      <c r="AF19" s="70" cm="1">
         <f t="array" ref="AF19">IF(OR($V19=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AF$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AF$13+1)),INDEX($X$15:$AK$20,$V19,AF$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AG19" s="77" cm="1">
+      <c r="AG19" s="70" cm="1">
         <f t="array" ref="AG19">IF(OR($V19=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AG$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AG$13+1)),INDEX($X$15:$AK$20,$V19,AG$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AH19" s="77" cm="1">
+      <c r="AH19" s="70" cm="1">
         <f t="array" ref="AH19">IF(OR($V19=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AH$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AH$13+1)),INDEX($X$15:$AK$20,$V19,AH$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AI19" s="77" cm="1">
+      <c r="AI19" s="70" cm="1">
         <f t="array" ref="AI19">IF(OR($V19=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AI$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AI$13+1)),INDEX($X$15:$AK$20,$V19,AI$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AJ19" s="77" cm="1">
+      <c r="AJ19" s="70" cm="1">
         <f t="array" ref="AJ19">IF(OR($V19=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AJ$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AJ$13+1)),INDEX($X$15:$AK$20,$V19,AJ$13+1)))</f>
         <v>13</v>
       </c>
-      <c r="AK19" s="78" cm="1">
+      <c r="AK19" s="71" cm="1">
         <f t="array" ref="AK19">IF(OR($V19=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V19),MAX(INDEX($G$15:$G$19,$V19)+INDEX($X$15:$AK$20,$V19,AK$13+1-INDEX($F$15:$F$19,$V19)),INDEX($X$15:$AK$20,$V19,AK$13+1)),INDEX($X$15:$AK$20,$V19,AK$13+1)))</f>
         <v>13</v>
       </c>
-      <c r="AL19" s="103"/>
+      <c r="AL19" s="85"/>
     </row>
     <row r="20" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V20" s="98">
+      <c r="V20" s="151">
         <v>5</v>
       </c>
-      <c r="W20" s="99"/>
-      <c r="X20" s="82" cm="1">
+      <c r="W20" s="152"/>
+      <c r="X20" s="75" cm="1">
         <f t="array" ref="X20">IF(OR($V20=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,X$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,X$13+1)),INDEX($X$15:$AK$20,$V20,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y20" s="82" cm="1">
+      <c r="Y20" s="75" cm="1">
         <f t="array" ref="Y20">IF(OR($V20=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,Y$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,Y$13+1)),INDEX($X$15:$AK$20,$V20,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="82" cm="1">
+      <c r="Z20" s="75" cm="1">
         <f t="array" ref="Z20">IF(OR($V20=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,Z$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,Z$13+1)),INDEX($X$15:$AK$20,$V20,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="82" cm="1">
+      <c r="AA20" s="75" cm="1">
         <f t="array" ref="AA20">IF(OR($V20=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AA$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AA$13+1)),INDEX($X$15:$AK$20,$V20,AA$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AB20" s="82" cm="1">
+      <c r="AB20" s="75" cm="1">
         <f t="array" ref="AB20">IF(OR($V20=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AB$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AB$13+1)),INDEX($X$15:$AK$20,$V20,AB$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AC20" s="82" cm="1">
+      <c r="AC20" s="75" cm="1">
         <f t="array" ref="AC20">IF(OR($V20=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AC$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AC$13+1)),INDEX($X$15:$AK$20,$V20,AC$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AD20" s="82" cm="1">
+      <c r="AD20" s="75" cm="1">
         <f t="array" ref="AD20">IF(OR($V20=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AD$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AD$13+1)),INDEX($X$15:$AK$20,$V20,AD$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AE20" s="82" cm="1">
+      <c r="AE20" s="75" cm="1">
         <f t="array" ref="AE20">IF(OR($V20=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AE$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AE$13+1)),INDEX($X$15:$AK$20,$V20,AE$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AF20" s="82" cm="1">
+      <c r="AF20" s="75" cm="1">
         <f t="array" ref="AF20">IF(OR($V20=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AF$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AF$13+1)),INDEX($X$15:$AK$20,$V20,AF$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AG20" s="82" cm="1">
+      <c r="AG20" s="75" cm="1">
         <f t="array" ref="AG20">IF(OR($V20=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AG$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AG$13+1)),INDEX($X$15:$AK$20,$V20,AG$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AH20" s="82" cm="1">
+      <c r="AH20" s="75" cm="1">
         <f t="array" ref="AH20">IF(OR($V20=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AH$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AH$13+1)),INDEX($X$15:$AK$20,$V20,AH$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AI20" s="82" cm="1">
+      <c r="AI20" s="75" cm="1">
         <f t="array" ref="AI20">IF(OR($V20=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AI$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AI$13+1)),INDEX($X$15:$AK$20,$V20,AI$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AJ20" s="82" cm="1">
+      <c r="AJ20" s="75" cm="1">
         <f t="array" ref="AJ20">IF(OR($V20=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AJ$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AJ$13+1)),INDEX($X$15:$AK$20,$V20,AJ$13+1)))</f>
         <v>13</v>
       </c>
-      <c r="AK20" s="118" cm="1">
+      <c r="AK20" s="100" cm="1">
         <f t="array" ref="AK20">IF(OR($V20=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V20),MAX(INDEX($G$15:$G$19,$V20)+INDEX($X$15:$AK$20,$V20,AK$13+1-INDEX($F$15:$F$19,$V20)),INDEX($X$15:$AK$20,$V20,AK$13+1)),INDEX($X$15:$AK$20,$V20,AK$13+1)))</f>
         <v>13</v>
       </c>
-      <c r="AL20" s="103"/>
+      <c r="AL20" s="85"/>
     </row>
     <row r="25" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V26" s="84" t="s">
+      <c r="V26" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="86"/>
+      <c r="W26" s="154"/>
+      <c r="X26" s="154"/>
+      <c r="Y26" s="154"/>
+      <c r="Z26" s="154"/>
+      <c r="AA26" s="154"/>
+      <c r="AB26" s="154"/>
+      <c r="AC26" s="154"/>
+      <c r="AD26" s="154"/>
+      <c r="AE26" s="154"/>
+      <c r="AF26" s="154"/>
+      <c r="AG26" s="154"/>
+      <c r="AH26" s="154"/>
+      <c r="AI26" s="154"/>
+      <c r="AJ26" s="154"/>
+      <c r="AK26" s="155"/>
     </row>
     <row r="27" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="V27" s="105"/>
-      <c r="W27" s="106" t="s">
+      <c r="V27" s="87"/>
+      <c r="W27" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="X27" s="119">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="89">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="89">
+      <c r="X27" s="164">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="158">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="158">
         <v>2</v>
       </c>
-      <c r="AA27" s="89">
+      <c r="AA27" s="158">
         <v>3</v>
       </c>
-      <c r="AB27" s="89">
+      <c r="AB27" s="158">
         <v>4</v>
       </c>
-      <c r="AC27" s="89">
+      <c r="AC27" s="158">
         <v>5</v>
       </c>
-      <c r="AD27" s="89">
+      <c r="AD27" s="158">
         <v>6</v>
       </c>
-      <c r="AE27" s="89">
+      <c r="AE27" s="158">
         <v>7</v>
       </c>
-      <c r="AF27" s="89">
+      <c r="AF27" s="158">
         <v>8</v>
       </c>
-      <c r="AG27" s="89">
+      <c r="AG27" s="158">
         <v>9</v>
       </c>
-      <c r="AH27" s="89">
+      <c r="AH27" s="158">
         <v>10</v>
       </c>
-      <c r="AI27" s="89">
+      <c r="AI27" s="158">
         <v>11</v>
       </c>
-      <c r="AJ27" s="89">
+      <c r="AJ27" s="158">
         <v>12</v>
       </c>
-      <c r="AK27" s="90">
+      <c r="AK27" s="160">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="V28" s="111" t="s">
+      <c r="V28" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="W28" s="112"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="93"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="159"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="159"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="159"/>
+      <c r="AD28" s="159"/>
+      <c r="AE28" s="159"/>
+      <c r="AF28" s="159"/>
+      <c r="AG28" s="159"/>
+      <c r="AH28" s="159"/>
+      <c r="AI28" s="159"/>
+      <c r="AJ28" s="159"/>
+      <c r="AK28" s="161"/>
     </row>
     <row r="29" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="V29" s="121">
-        <v>0</v>
-      </c>
-      <c r="W29" s="122"/>
-      <c r="X29" s="77" cm="1">
+      <c r="V29" s="162">
+        <v>0</v>
+      </c>
+      <c r="W29" s="163"/>
+      <c r="X29" s="70" cm="1">
         <f t="array" ref="X29">IF(OR($V29=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,X$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,X$13+1)),INDEX($X$15:$AK$20,$V29,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="77" cm="1">
+      <c r="Y29" s="70" cm="1">
         <f t="array" ref="Y29">IF(OR($V29=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,Y$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,Y$13+1)),INDEX($X$15:$AK$20,$V29,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="77" cm="1">
+      <c r="Z29" s="70" cm="1">
         <f t="array" ref="Z29">IF(OR($V29=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,Z$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,Z$13+1)),INDEX($X$15:$AK$20,$V29,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA29" s="77" cm="1">
+      <c r="AA29" s="70" cm="1">
         <f t="array" ref="AA29">IF(OR($V29=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AA$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AA$13+1)),INDEX($X$15:$AK$20,$V29,AA$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="77" cm="1">
+      <c r="AB29" s="70" cm="1">
         <f t="array" ref="AB29">IF(OR($V29=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AB$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AB$13+1)),INDEX($X$15:$AK$20,$V29,AB$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="77" cm="1">
+      <c r="AC29" s="70" cm="1">
         <f t="array" ref="AC29">IF(OR($V29=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AC$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AC$13+1)),INDEX($X$15:$AK$20,$V29,AC$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="77" cm="1">
+      <c r="AD29" s="70" cm="1">
         <f t="array" ref="AD29">IF(OR($V29=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AD$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AD$13+1)),INDEX($X$15:$AK$20,$V29,AD$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AE29" s="77" cm="1">
+      <c r="AE29" s="70" cm="1">
         <f t="array" ref="AE29">IF(OR($V29=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AE$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AE$13+1)),INDEX($X$15:$AK$20,$V29,AE$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AF29" s="77" cm="1">
+      <c r="AF29" s="70" cm="1">
         <f t="array" ref="AF29">IF(OR($V29=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AF$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AF$13+1)),INDEX($X$15:$AK$20,$V29,AF$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AG29" s="77" cm="1">
+      <c r="AG29" s="70" cm="1">
         <f t="array" ref="AG29">IF(OR($V29=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AG$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AG$13+1)),INDEX($X$15:$AK$20,$V29,AG$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AH29" s="77" cm="1">
+      <c r="AH29" s="70" cm="1">
         <f t="array" ref="AH29">IF(OR($V29=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AH$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AH$13+1)),INDEX($X$15:$AK$20,$V29,AH$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AI29" s="77" cm="1">
+      <c r="AI29" s="70" cm="1">
         <f t="array" ref="AI29">IF(OR($V29=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AI$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AI$13+1)),INDEX($X$15:$AK$20,$V29,AI$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AJ29" s="77" cm="1">
+      <c r="AJ29" s="70" cm="1">
         <f t="array" ref="AJ29">IF(OR($V29=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AJ$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AJ$13+1)),INDEX($X$15:$AK$20,$V29,AJ$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AK29" s="78" cm="1">
+      <c r="AK29" s="71" cm="1">
         <f t="array" ref="AK29">IF(OR($V29=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V29),MAX(INDEX($G$15:$G$19,$V29)+INDEX($X$15:$AK$20,$V29,AK$13+1-INDEX($F$15:$F$19,$V29)),INDEX($X$15:$AK$20,$V29,AK$13+1)),INDEX($X$15:$AK$20,$V29,AK$13+1)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="V30" s="94">
-        <v>1</v>
-      </c>
-      <c r="W30" s="95"/>
-      <c r="X30" s="77" cm="1">
+      <c r="V30" s="149">
+        <v>1</v>
+      </c>
+      <c r="W30" s="150"/>
+      <c r="X30" s="70" cm="1">
         <f t="array" ref="X30">IF(OR($V30=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,X$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,X$13+1)),INDEX($X$15:$AK$20,$V30,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="123" cm="1">
+      <c r="Y30" s="101" cm="1">
         <f t="array" ref="Y30">IF(OR($V30=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,Y$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,Y$13+1)),INDEX($X$15:$AK$20,$V30,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="124" cm="1">
+      <c r="Z30" s="102" cm="1">
         <f t="array" ref="Z30">IF(OR($V30=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,Z$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,Z$13+1)),INDEX($X$15:$AK$20,$V30,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="77" cm="1">
+      <c r="AA30" s="70" cm="1">
         <f t="array" ref="AA30">IF(OR($V30=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AA$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AA$13+1)),INDEX($X$15:$AK$20,$V30,AA$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AB30" s="77" cm="1">
+      <c r="AB30" s="70" cm="1">
         <f t="array" ref="AB30">IF(OR($V30=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AB$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AB$13+1)),INDEX($X$15:$AK$20,$V30,AB$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AC30" s="77" cm="1">
+      <c r="AC30" s="70" cm="1">
         <f t="array" ref="AC30">IF(OR($V30=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AC$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AC$13+1)),INDEX($X$15:$AK$20,$V30,AC$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AD30" s="77" cm="1">
+      <c r="AD30" s="70" cm="1">
         <f t="array" ref="AD30">IF(OR($V30=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AD$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AD$13+1)),INDEX($X$15:$AK$20,$V30,AD$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AE30" s="77" cm="1">
+      <c r="AE30" s="70" cm="1">
         <f t="array" ref="AE30">IF(OR($V30=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AE$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AE$13+1)),INDEX($X$15:$AK$20,$V30,AE$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AF30" s="77" cm="1">
+      <c r="AF30" s="70" cm="1">
         <f t="array" ref="AF30">IF(OR($V30=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AF$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AF$13+1)),INDEX($X$15:$AK$20,$V30,AF$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AG30" s="77" cm="1">
+      <c r="AG30" s="70" cm="1">
         <f t="array" ref="AG30">IF(OR($V30=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AG$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AG$13+1)),INDEX($X$15:$AK$20,$V30,AG$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AH30" s="77" cm="1">
+      <c r="AH30" s="70" cm="1">
         <f t="array" ref="AH30">IF(OR($V30=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AH$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AH$13+1)),INDEX($X$15:$AK$20,$V30,AH$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AI30" s="77" cm="1">
+      <c r="AI30" s="70" cm="1">
         <f t="array" ref="AI30">IF(OR($V30=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AI$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AI$13+1)),INDEX($X$15:$AK$20,$V30,AI$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AJ30" s="77" cm="1">
+      <c r="AJ30" s="70" cm="1">
         <f t="array" ref="AJ30">IF(OR($V30=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AJ$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AJ$13+1)),INDEX($X$15:$AK$20,$V30,AJ$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AK30" s="78" cm="1">
+      <c r="AK30" s="71" cm="1">
         <f t="array" ref="AK30">IF(OR($V30=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V30),MAX(INDEX($G$15:$G$19,$V30)+INDEX($X$15:$AK$20,$V30,AK$13+1-INDEX($F$15:$F$19,$V30)),INDEX($X$15:$AK$20,$V30,AK$13+1)),INDEX($X$15:$AK$20,$V30,AK$13+1)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="V31" s="94">
+      <c r="V31" s="149">
         <v>2</v>
       </c>
-      <c r="W31" s="95"/>
-      <c r="X31" s="77" cm="1">
+      <c r="W31" s="150"/>
+      <c r="X31" s="70" cm="1">
         <f t="array" ref="X31">IF(OR($V31=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,X$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,X$13+1)),INDEX($X$15:$AK$20,$V31,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="77" cm="1">
+      <c r="Y31" s="70" cm="1">
         <f t="array" ref="Y31">IF(OR($V31=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,Y$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,Y$13+1)),INDEX($X$15:$AK$20,$V31,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="77" cm="1">
+      <c r="Z31" s="70" cm="1">
         <f t="array" ref="Z31">IF(OR($V31=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,Z$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,Z$13+1)),INDEX($X$15:$AK$20,$V31,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA31" s="77" cm="1">
+      <c r="AA31" s="70" cm="1">
         <f t="array" ref="AA31">IF(OR($V31=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AA$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AA$13+1)),INDEX($X$15:$AK$20,$V31,AA$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AB31" s="77" cm="1">
+      <c r="AB31" s="70" cm="1">
         <f t="array" ref="AB31">IF(OR($V31=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AB$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AB$13+1)),INDEX($X$15:$AK$20,$V31,AB$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AC31" s="123" cm="1">
+      <c r="AC31" s="101" cm="1">
         <f t="array" ref="AC31">IF(OR($V31=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AC$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AC$13+1)),INDEX($X$15:$AK$20,$V31,AC$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AD31" s="124" cm="1">
+      <c r="AD31" s="102" cm="1">
         <f t="array" ref="AD31">IF(OR($V31=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AD$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AD$13+1)),INDEX($X$15:$AK$20,$V31,AD$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AE31" s="77" cm="1">
+      <c r="AE31" s="70" cm="1">
         <f t="array" ref="AE31">IF(OR($V31=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AE$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AE$13+1)),INDEX($X$15:$AK$20,$V31,AE$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AF31" s="77" cm="1">
+      <c r="AF31" s="70" cm="1">
         <f t="array" ref="AF31">IF(OR($V31=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AF$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AF$13+1)),INDEX($X$15:$AK$20,$V31,AF$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AG31" s="77" cm="1">
+      <c r="AG31" s="70" cm="1">
         <f t="array" ref="AG31">IF(OR($V31=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AG$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AG$13+1)),INDEX($X$15:$AK$20,$V31,AG$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AH31" s="77" cm="1">
+      <c r="AH31" s="70" cm="1">
         <f t="array" ref="AH31">IF(OR($V31=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AH$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AH$13+1)),INDEX($X$15:$AK$20,$V31,AH$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AI31" s="77" cm="1">
+      <c r="AI31" s="70" cm="1">
         <f t="array" ref="AI31">IF(OR($V31=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AI$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AI$13+1)),INDEX($X$15:$AK$20,$V31,AI$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AJ31" s="77" cm="1">
+      <c r="AJ31" s="70" cm="1">
         <f t="array" ref="AJ31">IF(OR($V31=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AJ$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AJ$13+1)),INDEX($X$15:$AK$20,$V31,AJ$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AK31" s="78" cm="1">
+      <c r="AK31" s="71" cm="1">
         <f t="array" ref="AK31">IF(OR($V31=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V31),MAX(INDEX($G$15:$G$19,$V31)+INDEX($X$15:$AK$20,$V31,AK$13+1-INDEX($F$15:$F$19,$V31)),INDEX($X$15:$AK$20,$V31,AK$13+1)),INDEX($X$15:$AK$20,$V31,AK$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AL31" s="125">
+      <c r="AL31" s="103">
         <f>AC27-F16</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="V32" s="94">
+      <c r="V32" s="149">
         <v>3</v>
       </c>
-      <c r="W32" s="95"/>
-      <c r="X32" s="77" cm="1">
+      <c r="W32" s="150"/>
+      <c r="X32" s="70" cm="1">
         <f t="array" ref="X32">IF(OR($V32=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,X$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,X$13+1)),INDEX($X$15:$AK$20,$V32,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y32" s="77" cm="1">
+      <c r="Y32" s="70" cm="1">
         <f t="array" ref="Y32">IF(OR($V32=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,Y$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,Y$13+1)),INDEX($X$15:$AK$20,$V32,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z32" s="77" cm="1">
+      <c r="Z32" s="70" cm="1">
         <f t="array" ref="Z32">IF(OR($V32=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,Z$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,Z$13+1)),INDEX($X$15:$AK$20,$V32,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA32" s="77" cm="1">
+      <c r="AA32" s="70" cm="1">
         <f t="array" ref="AA32">IF(OR($V32=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AA$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AA$13+1)),INDEX($X$15:$AK$20,$V32,AA$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AB32" s="77" cm="1">
+      <c r="AB32" s="70" cm="1">
         <f t="array" ref="AB32">IF(OR($V32=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AB$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AB$13+1)),INDEX($X$15:$AK$20,$V32,AB$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AC32" s="123" cm="1">
+      <c r="AC32" s="101" cm="1">
         <f t="array" ref="AC32">IF(OR($V32=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AC$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AC$13+1)),INDEX($X$15:$AK$20,$V32,AC$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AD32" s="124" cm="1">
+      <c r="AD32" s="102" cm="1">
         <f t="array" ref="AD32">IF(OR($V32=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AD$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AD$13+1)),INDEX($X$15:$AK$20,$V32,AD$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AE32" s="77" cm="1">
+      <c r="AE32" s="70" cm="1">
         <f t="array" ref="AE32">IF(OR($V32=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AE$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AE$13+1)),INDEX($X$15:$AK$20,$V32,AE$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AF32" s="77" cm="1">
+      <c r="AF32" s="70" cm="1">
         <f t="array" ref="AF32">IF(OR($V32=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AF$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AF$13+1)),INDEX($X$15:$AK$20,$V32,AF$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AG32" s="77" cm="1">
+      <c r="AG32" s="70" cm="1">
         <f t="array" ref="AG32">IF(OR($V32=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AG$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AG$13+1)),INDEX($X$15:$AK$20,$V32,AG$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AH32" s="77" cm="1">
+      <c r="AH32" s="70" cm="1">
         <f t="array" ref="AH32">IF(OR($V32=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AH$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AH$13+1)),INDEX($X$15:$AK$20,$V32,AH$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AI32" s="77" cm="1">
+      <c r="AI32" s="70" cm="1">
         <f t="array" ref="AI32">IF(OR($V32=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AI$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AI$13+1)),INDEX($X$15:$AK$20,$V32,AI$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AJ32" s="77" cm="1">
+      <c r="AJ32" s="70" cm="1">
         <f t="array" ref="AJ32">IF(OR($V32=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AJ$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AJ$13+1)),INDEX($X$15:$AK$20,$V32,AJ$13+1)))</f>
         <v>11</v>
       </c>
-      <c r="AK32" s="78" cm="1">
+      <c r="AK32" s="71" cm="1">
         <f t="array" ref="AK32">IF(OR($V32=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V32),MAX(INDEX($G$15:$G$19,$V32)+INDEX($X$15:$AK$20,$V32,AK$13+1-INDEX($F$15:$F$19,$V32)),INDEX($X$15:$AK$20,$V32,AK$13+1)),INDEX($X$15:$AK$20,$V32,AK$13+1)))</f>
         <v>11</v>
       </c>
-      <c r="AL32" s="126"/>
+      <c r="AL32" s="104"/>
     </row>
     <row r="33" spans="22:38" x14ac:dyDescent="0.25">
-      <c r="V33" s="94">
+      <c r="V33" s="149">
         <v>4</v>
       </c>
-      <c r="W33" s="95"/>
-      <c r="X33" s="77" cm="1">
+      <c r="W33" s="150"/>
+      <c r="X33" s="70" cm="1">
         <f t="array" ref="X33">IF(OR($V33=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,X$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,X$13+1)),INDEX($X$15:$AK$20,$V33,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="77" cm="1">
+      <c r="Y33" s="70" cm="1">
         <f t="array" ref="Y33">IF(OR($V33=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,Y$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,Y$13+1)),INDEX($X$15:$AK$20,$V33,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="77" cm="1">
+      <c r="Z33" s="70" cm="1">
         <f t="array" ref="Z33">IF(OR($V33=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,Z$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,Z$13+1)),INDEX($X$15:$AK$20,$V33,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA33" s="77" cm="1">
+      <c r="AA33" s="70" cm="1">
         <f t="array" ref="AA33">IF(OR($V33=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AA$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AA$13+1)),INDEX($X$15:$AK$20,$V33,AA$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AB33" s="77" cm="1">
+      <c r="AB33" s="70" cm="1">
         <f t="array" ref="AB33">IF(OR($V33=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AB$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AB$13+1)),INDEX($X$15:$AK$20,$V33,AB$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AC33" s="77" cm="1">
+      <c r="AC33" s="70" cm="1">
         <f t="array" ref="AC33">IF(OR($V33=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AC$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AC$13+1)),INDEX($X$15:$AK$20,$V33,AC$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AD33" s="77" cm="1">
+      <c r="AD33" s="70" cm="1">
         <f t="array" ref="AD33">IF(OR($V33=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AD$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AD$13+1)),INDEX($X$15:$AK$20,$V33,AD$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AE33" s="77" cm="1">
+      <c r="AE33" s="70" cm="1">
         <f t="array" ref="AE33">IF(OR($V33=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AE$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AE$13+1)),INDEX($X$15:$AK$20,$V33,AE$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AF33" s="77" cm="1">
+      <c r="AF33" s="70" cm="1">
         <f t="array" ref="AF33">IF(OR($V33=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AF$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AF$13+1)),INDEX($X$15:$AK$20,$V33,AF$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AG33" s="77" cm="1">
+      <c r="AG33" s="70" cm="1">
         <f t="array" ref="AG33">IF(OR($V33=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AG$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AG$13+1)),INDEX($X$15:$AK$20,$V33,AG$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AH33" s="77" cm="1">
+      <c r="AH33" s="70" cm="1">
         <f t="array" ref="AH33">IF(OR($V33=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AH$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AH$13+1)),INDEX($X$15:$AK$20,$V33,AH$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AI33" s="77" cm="1">
+      <c r="AI33" s="70" cm="1">
         <f t="array" ref="AI33">IF(OR($V33=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AI$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AI$13+1)),INDEX($X$15:$AK$20,$V33,AI$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AJ33" s="77" cm="1">
+      <c r="AJ33" s="70" cm="1">
         <f t="array" ref="AJ33">IF(OR($V33=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AJ$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AJ$13+1)),INDEX($X$15:$AK$20,$V33,AJ$13+1)))</f>
         <v>13</v>
       </c>
-      <c r="AK33" s="127" cm="1">
+      <c r="AK33" s="105" cm="1">
         <f t="array" ref="AK33">IF(OR($V33=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V33),MAX(INDEX($G$15:$G$19,$V33)+INDEX($X$15:$AK$20,$V33,AK$13+1-INDEX($F$15:$F$19,$V33)),INDEX($X$15:$AK$20,$V33,AK$13+1)),INDEX($X$15:$AK$20,$V33,AK$13+1)))</f>
         <v>13</v>
       </c>
-      <c r="AL33" s="125">
+      <c r="AL33" s="103">
         <f>AK27-F18</f>
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="22:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V34" s="98">
+      <c r="V34" s="151">
         <v>5</v>
       </c>
-      <c r="W34" s="99"/>
-      <c r="X34" s="82" cm="1">
+      <c r="W34" s="152"/>
+      <c r="X34" s="75" cm="1">
         <f t="array" ref="X34">IF(OR($V34=0,X$13=0),0,IF(X$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,X$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,X$13+1)),INDEX($X$15:$AK$20,$V34,X$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Y34" s="82" cm="1">
+      <c r="Y34" s="75" cm="1">
         <f t="array" ref="Y34">IF(OR($V34=0,Y$13=0),0,IF(Y$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,Y$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,Y$13+1)),INDEX($X$15:$AK$20,$V34,Y$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="82" cm="1">
+      <c r="Z34" s="75" cm="1">
         <f t="array" ref="Z34">IF(OR($V34=0,Z$13=0),0,IF(Z$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,Z$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,Z$13+1)),INDEX($X$15:$AK$20,$V34,Z$13+1)))</f>
         <v>0</v>
       </c>
-      <c r="AA34" s="82" cm="1">
+      <c r="AA34" s="75" cm="1">
         <f t="array" ref="AA34">IF(OR($V34=0,AA$13=0),0,IF(AA$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AA$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AA$13+1)),INDEX($X$15:$AK$20,$V34,AA$13+1)))</f>
         <v>1</v>
       </c>
-      <c r="AB34" s="82" cm="1">
+      <c r="AB34" s="75" cm="1">
         <f t="array" ref="AB34">IF(OR($V34=0,AB$13=0),0,IF(AB$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AB$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AB$13+1)),INDEX($X$15:$AK$20,$V34,AB$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AC34" s="82" cm="1">
+      <c r="AC34" s="75" cm="1">
         <f t="array" ref="AC34">IF(OR($V34=0,AC$13=0),0,IF(AC$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AC$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AC$13+1)),INDEX($X$15:$AK$20,$V34,AC$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AD34" s="82" cm="1">
+      <c r="AD34" s="75" cm="1">
         <f t="array" ref="AD34">IF(OR($V34=0,AD$13=0),0,IF(AD$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AD$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AD$13+1)),INDEX($X$15:$AK$20,$V34,AD$13+1)))</f>
         <v>6</v>
       </c>
-      <c r="AE34" s="82" cm="1">
+      <c r="AE34" s="75" cm="1">
         <f t="array" ref="AE34">IF(OR($V34=0,AE$13=0),0,IF(AE$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AE$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AE$13+1)),INDEX($X$15:$AK$20,$V34,AE$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AF34" s="82" cm="1">
+      <c r="AF34" s="75" cm="1">
         <f t="array" ref="AF34">IF(OR($V34=0,AF$13=0),0,IF(AF$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AF$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AF$13+1)),INDEX($X$15:$AK$20,$V34,AF$13+1)))</f>
         <v>7</v>
       </c>
-      <c r="AG34" s="82" cm="1">
+      <c r="AG34" s="75" cm="1">
         <f t="array" ref="AG34">IF(OR($V34=0,AG$13=0),0,IF(AG$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AG$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AG$13+1)),INDEX($X$15:$AK$20,$V34,AG$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AH34" s="82" cm="1">
+      <c r="AH34" s="75" cm="1">
         <f t="array" ref="AH34">IF(OR($V34=0,AH$13=0),0,IF(AH$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AH$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AH$13+1)),INDEX($X$15:$AK$20,$V34,AH$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AI34" s="82" cm="1">
+      <c r="AI34" s="75" cm="1">
         <f t="array" ref="AI34">IF(OR($V34=0,AI$13=0),0,IF(AI$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AI$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AI$13+1)),INDEX($X$15:$AK$20,$V34,AI$13+1)))</f>
         <v>10</v>
       </c>
-      <c r="AJ34" s="82" cm="1">
+      <c r="AJ34" s="75" cm="1">
         <f t="array" ref="AJ34">IF(OR($V34=0,AJ$13=0),0,IF(AJ$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AJ$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AJ$13+1)),INDEX($X$15:$AK$20,$V34,AJ$13+1)))</f>
         <v>13</v>
       </c>
-      <c r="AK34" s="128" cm="1">
+      <c r="AK34" s="106" cm="1">
         <f t="array" ref="AK34">IF(OR($V34=0,AK$13=0),0,IF(AK$13&gt;=INDEX($F$15:$F$19,$V34),MAX(INDEX($G$15:$G$19,$V34)+INDEX($X$15:$AK$20,$V34,AK$13+1-INDEX($F$15:$F$19,$V34)),INDEX($X$15:$AK$20,$V34,AK$13+1)),INDEX($X$15:$AK$20,$V34,AK$13+1)))</f>
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="V26:AK26"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="AF27:AF28"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="AH27:AH28"/>
     <mergeCell ref="V32:W32"/>
     <mergeCell ref="V33:W33"/>
     <mergeCell ref="V34:W34"/>
@@ -5241,23 +5248,16 @@
     <mergeCell ref="V30:W30"/>
     <mergeCell ref="V31:W31"/>
     <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="AF27:AF28"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="V26:AK26"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5272,800 +5272,790 @@
   <dimension ref="D2:Y21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="3.7109375" style="21"/>
-    <col min="4" max="4" width="4.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="4" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="21" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="3.7109375" style="21"/>
+    <col min="1" max="3" width="3.7109375" style="19"/>
+    <col min="4" max="4" width="4.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="4.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="4" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="19" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="3.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:25" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
     </row>
     <row r="3" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="73">
-        <v>0</v>
-      </c>
-      <c r="F4" s="73">
-        <v>1</v>
-      </c>
-      <c r="G4" s="73">
+      <c r="E4" s="66">
+        <v>0</v>
+      </c>
+      <c r="F4" s="66">
+        <v>1</v>
+      </c>
+      <c r="G4" s="66">
         <v>2</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="66">
         <v>3</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="66">
         <v>4</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="66">
         <v>5</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="66">
         <v>6</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="66">
         <v>7</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M4" s="66">
         <v>8</v>
       </c>
-      <c r="N4" s="73">
+      <c r="N4" s="66">
         <v>9</v>
       </c>
-      <c r="O4" s="74">
+      <c r="O4" s="67">
         <v>10</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="70">
         <v>31</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="70">
         <v>30</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="70">
         <v>28</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="70">
         <v>28</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="70">
         <v>27</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="70">
         <v>26</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="70">
         <v>26</v>
       </c>
-      <c r="L5" s="77">
+      <c r="L5" s="70">
         <v>25</v>
       </c>
-      <c r="M5" s="77">
+      <c r="M5" s="70">
         <v>24</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="70">
         <v>24</v>
       </c>
-      <c r="O5" s="78">
+      <c r="O5" s="71">
         <v>23</v>
       </c>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="80">
+      <c r="R5" s="73">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="75">
         <v>8</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="75">
         <v>9</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="75">
         <v>9</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="75">
         <v>10</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="75">
         <v>10</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="75">
         <v>10</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="75">
         <v>11</v>
       </c>
-      <c r="L6" s="82">
+      <c r="L6" s="75">
         <v>12</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="75">
         <v>14</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N6" s="75">
         <v>17</v>
       </c>
-      <c r="O6" s="83">
+      <c r="O6" s="76">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="86"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="155"/>
     </row>
     <row r="10" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D10" s="87"/>
-      <c r="E10" s="88" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="89">
-        <v>0</v>
-      </c>
-      <c r="G10" s="89">
-        <v>1</v>
-      </c>
-      <c r="H10" s="89">
+      <c r="F10" s="158">
+        <v>0</v>
+      </c>
+      <c r="G10" s="158">
+        <v>1</v>
+      </c>
+      <c r="H10" s="158">
         <v>2</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="158">
         <v>3</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="158">
         <v>4</v>
       </c>
-      <c r="K10" s="89">
+      <c r="K10" s="158">
         <v>5</v>
       </c>
-      <c r="L10" s="89">
+      <c r="L10" s="158">
         <v>6</v>
       </c>
-      <c r="M10" s="89">
+      <c r="M10" s="158">
         <v>7</v>
       </c>
-      <c r="N10" s="89">
+      <c r="N10" s="158">
         <v>8</v>
       </c>
-      <c r="O10" s="89">
+      <c r="O10" s="158">
         <v>9</v>
       </c>
-      <c r="P10" s="90">
+      <c r="P10" s="160">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="161"/>
     </row>
     <row r="12" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D12" s="94">
+      <c r="D12" s="149">
         <v>10</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="32">
+      <c r="E12" s="150"/>
+      <c r="F12" s="27">
         <f t="shared" ref="F12:P12" si="0">MAX($R$4-$R$5+$E$5-$E$6,E$5-E$6)</f>
         <v>23</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I12" s="96">
+      <c r="I12" s="80">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="28">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Q12" s="97">
+      <c r="Q12" s="81">
         <f>$R$4-$R$5+$E$5-$E$6</f>
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D13" s="94">
+      <c r="D13" s="149">
         <v>9</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="32">
+      <c r="E13" s="150"/>
+      <c r="F13" s="27">
         <f t="shared" ref="F13:P13" si="1">MAX($R$4-$R$5+$E$5-$E$6+$G$12,E$5-E$6+G12)</f>
         <v>44</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="27">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H13" s="96">
+      <c r="H13" s="80">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="27">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="27">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="27">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="Q13" s="97">
+      <c r="Q13" s="81">
         <f>$R$4-$R$5+$E$5-$E$6+$G12</f>
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D14" s="94">
+      <c r="D14" s="149">
         <v>8</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="32">
+      <c r="E14" s="150"/>
+      <c r="F14" s="27">
         <f t="shared" ref="F14:P21" si="2">MAX($R$4-$R$5+$E$5-$E$6+$G13,E$5-E$6+G13)</f>
         <v>63</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G14" s="80">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="27">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="27">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="27">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="27">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="27">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="27">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="27">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="27">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="28">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="Q14" s="97">
+      <c r="Q14" s="81">
         <f t="shared" ref="Q14:Q21" si="3">$R$4-$R$5+$E$5-$E$6+$G13</f>
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D15" s="94">
+      <c r="D15" s="149">
         <v>7</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96">
+      <c r="E15" s="150"/>
+      <c r="F15" s="80">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="27">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="27">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="27">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="27">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="27">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="27">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="27">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="27">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="27">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="28">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="Q15" s="97">
+      <c r="Q15" s="81">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D16" s="94">
+      <c r="D16" s="149">
         <v>6</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="32">
+      <c r="E16" s="150"/>
+      <c r="F16" s="27">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="27">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="27">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="I16" s="96">
+      <c r="I16" s="80">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="27">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="27">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="27">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="27">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="27">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="27">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="28">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="Q16" s="97">
+      <c r="Q16" s="81">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="94">
+      <c r="D17" s="149">
         <v>5</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="32">
+      <c r="E17" s="150"/>
+      <c r="F17" s="27">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="27">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="H17" s="96">
+      <c r="H17" s="80">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="27">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="27">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="27">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="27">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="27">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="27">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="27">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="Q17" s="97">
+      <c r="Q17" s="81">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="94">
+      <c r="D18" s="149">
         <v>4</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="32">
+      <c r="E18" s="150"/>
+      <c r="F18" s="27">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="G18" s="96">
+      <c r="G18" s="80">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="27">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="27">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="27">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="27">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="27">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="27">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="27">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="27">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="28">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="Q18" s="97">
+      <c r="Q18" s="81">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="94">
+      <c r="D19" s="149">
         <v>3</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96">
+      <c r="E19" s="150"/>
+      <c r="F19" s="80">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="27">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="27">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="27">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="27">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="27">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="27">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="27">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="27">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="27">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="28">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="Q19" s="97">
+      <c r="Q19" s="81">
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="94">
+      <c r="D20" s="149">
         <v>2</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="32">
+      <c r="E20" s="150"/>
+      <c r="F20" s="27">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="27">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="27">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="27">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="J20" s="96">
+      <c r="J20" s="80">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="27">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="27">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="27">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="N20" s="32">
+      <c r="N20" s="27">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="27">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="28">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="Q20" s="97">
+      <c r="Q20" s="81">
         <f t="shared" si="3"/>
         <v>151</v>
       </c>
     </row>
     <row r="21" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="98">
-        <v>1</v>
-      </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100">
+      <c r="D21" s="151">
+        <v>1</v>
+      </c>
+      <c r="E21" s="152"/>
+      <c r="F21" s="82">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="G21" s="100">
+      <c r="G21" s="82">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="H21" s="100">
+      <c r="H21" s="82">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="I21" s="101">
+      <c r="I21" s="83">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="J21" s="100">
+      <c r="J21" s="82">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="K21" s="100">
+      <c r="K21" s="82">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="L21" s="100">
+      <c r="L21" s="82">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="M21" s="100">
+      <c r="M21" s="82">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="N21" s="100">
+      <c r="N21" s="82">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="O21" s="100">
+      <c r="O21" s="82">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="P21" s="102">
+      <c r="P21" s="84">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="Q21" s="97">
+      <c r="Q21" s="81">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
@@ -6078,6 +6068,16 @@
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6091,116 +6091,116 @@
   </sheetPr>
   <dimension ref="F5:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="21"/>
-    <col min="4" max="4" width="10.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="21"/>
-    <col min="6" max="6" width="10.7109375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="11" style="21" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9.140625" style="21"/>
-    <col min="15" max="15" width="11" style="21" customWidth="1"/>
-    <col min="16" max="20" width="9.140625" style="21"/>
-    <col min="21" max="21" width="13.140625" style="21" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="10.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="10.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9.140625" style="19"/>
+    <col min="15" max="15" width="11" style="19" customWidth="1"/>
+    <col min="16" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="13.140625" style="19" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="5" spans="6:21" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
     </row>
     <row r="6" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="6:21" ht="21" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="25"/>
-      <c r="O7" s="23" t="s">
+      <c r="F7" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="20"/>
+      <c r="O7" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="25"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="20"/>
     </row>
     <row r="8" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="27"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="28"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="28"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="23"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="23"/>
     </row>
     <row r="9" spans="6:21" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="28"/>
-      <c r="O9" s="65" t="s">
+      <c r="K9" s="21"/>
+      <c r="L9" s="23"/>
+      <c r="O9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="P9" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="Q9" s="66" t="s">
+      <c r="Q9" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="R9" s="66" t="s">
+      <c r="R9" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="S9" s="67" t="s">
+      <c r="S9" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="28"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="23"/>
     </row>
     <row r="10" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F10" s="61">
+      <c r="F10" s="54">
         <v>0</v>
       </c>
       <c r="G10" s="2">
@@ -6212,12 +6212,12 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="59">
-        <v>0</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="28"/>
-      <c r="O10" s="34">
+      <c r="J10" s="52">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="23"/>
+      <c r="O10" s="29">
         <v>0</v>
       </c>
       <c r="P10" s="5">
@@ -6229,17 +6229,17 @@
       <c r="R10" s="5">
         <v>0</v>
       </c>
-      <c r="S10" s="68">
-        <v>0</v>
-      </c>
-      <c r="T10" s="173">
+      <c r="S10" s="61">
+        <v>0</v>
+      </c>
+      <c r="T10" s="128">
         <f>SUM(P10:S10)*O10</f>
         <v>0</v>
       </c>
-      <c r="U10" s="28"/>
+      <c r="U10" s="23"/>
     </row>
     <row r="11" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F11" s="48">
+      <c r="F11" s="41">
         <v>100</v>
       </c>
       <c r="G11" s="1">
@@ -6251,12 +6251,12 @@
       <c r="I11" s="1">
         <v>40</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <v>25</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="28"/>
-      <c r="O11" s="31">
+      <c r="K11" s="21"/>
+      <c r="L11" s="23"/>
+      <c r="O11" s="26">
         <v>100</v>
       </c>
       <c r="P11" s="4">
@@ -6268,17 +6268,17 @@
       <c r="R11" s="4">
         <v>0</v>
       </c>
-      <c r="S11" s="69">
-        <v>0</v>
-      </c>
-      <c r="T11" s="173">
+      <c r="S11" s="62">
+        <v>0</v>
+      </c>
+      <c r="T11" s="128">
         <f t="shared" ref="T11:T17" si="0">SUM(P11:S11)*O11</f>
         <v>100</v>
       </c>
-      <c r="U11" s="28"/>
+      <c r="U11" s="23"/>
     </row>
     <row r="12" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F12" s="48">
+      <c r="F12" s="41">
         <v>200</v>
       </c>
       <c r="G12" s="1">
@@ -6290,12 +6290,12 @@
       <c r="I12" s="1">
         <v>50</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>60</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="28"/>
-      <c r="O12" s="31">
+      <c r="K12" s="21"/>
+      <c r="L12" s="23"/>
+      <c r="O12" s="26">
         <v>200</v>
       </c>
       <c r="P12" s="4">
@@ -6307,17 +6307,17 @@
       <c r="R12" s="4">
         <v>0</v>
       </c>
-      <c r="S12" s="69">
-        <v>0</v>
-      </c>
-      <c r="T12" s="173">
+      <c r="S12" s="62">
+        <v>0</v>
+      </c>
+      <c r="T12" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="28"/>
+      <c r="U12" s="23"/>
     </row>
     <row r="13" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F13" s="48">
+      <c r="F13" s="41">
         <v>300</v>
       </c>
       <c r="G13" s="1">
@@ -6329,12 +6329,12 @@
       <c r="I13" s="1">
         <v>110</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <v>100</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="28"/>
-      <c r="O13" s="31">
+      <c r="K13" s="21"/>
+      <c r="L13" s="23"/>
+      <c r="O13" s="26">
         <v>300</v>
       </c>
       <c r="P13" s="4">
@@ -6346,17 +6346,17 @@
       <c r="R13" s="4">
         <v>0</v>
       </c>
-      <c r="S13" s="69">
-        <v>0</v>
-      </c>
-      <c r="T13" s="173">
+      <c r="S13" s="62">
+        <v>0</v>
+      </c>
+      <c r="T13" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U13" s="28"/>
+      <c r="U13" s="23"/>
     </row>
     <row r="14" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F14" s="48">
+      <c r="F14" s="41">
         <v>400</v>
       </c>
       <c r="G14" s="1">
@@ -6368,12 +6368,12 @@
       <c r="I14" s="1">
         <v>120</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="11">
         <v>130</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="28"/>
-      <c r="O14" s="31">
+      <c r="K14" s="21"/>
+      <c r="L14" s="23"/>
+      <c r="O14" s="26">
         <v>400</v>
       </c>
       <c r="P14" s="4">
@@ -6385,17 +6385,17 @@
       <c r="R14" s="4">
         <v>0</v>
       </c>
-      <c r="S14" s="69">
-        <v>0</v>
-      </c>
-      <c r="T14" s="173">
+      <c r="S14" s="62">
+        <v>0</v>
+      </c>
+      <c r="T14" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U14" s="28"/>
+      <c r="U14" s="23"/>
     </row>
     <row r="15" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F15" s="48">
+      <c r="F15" s="41">
         <v>500</v>
       </c>
       <c r="G15" s="1">
@@ -6407,12 +6407,12 @@
       <c r="I15" s="1">
         <v>180</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <v>160</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="28"/>
-      <c r="O15" s="31">
+      <c r="K15" s="21"/>
+      <c r="L15" s="23"/>
+      <c r="O15" s="26">
         <v>500</v>
       </c>
       <c r="P15" s="4">
@@ -6424,17 +6424,17 @@
       <c r="R15" s="4">
         <v>0</v>
       </c>
-      <c r="S15" s="69">
-        <v>0</v>
-      </c>
-      <c r="T15" s="173">
+      <c r="S15" s="62">
+        <v>0</v>
+      </c>
+      <c r="T15" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15" s="28"/>
+      <c r="U15" s="23"/>
     </row>
     <row r="16" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F16" s="48">
+      <c r="F16" s="41">
         <v>600</v>
       </c>
       <c r="G16" s="1">
@@ -6446,12 +6446,12 @@
       <c r="I16" s="1">
         <v>220</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <v>200</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="28"/>
-      <c r="O16" s="31">
+      <c r="K16" s="21"/>
+      <c r="L16" s="23"/>
+      <c r="O16" s="26">
         <v>600</v>
       </c>
       <c r="P16" s="4">
@@ -6463,206 +6463,206 @@
       <c r="R16" s="4">
         <v>1</v>
       </c>
-      <c r="S16" s="69">
-        <v>0</v>
-      </c>
-      <c r="T16" s="173">
+      <c r="S16" s="62">
+        <v>0</v>
+      </c>
+      <c r="T16" s="128">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="U16" s="28"/>
+      <c r="U16" s="23"/>
     </row>
     <row r="17" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="62">
+      <c r="F17" s="55">
         <v>700</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>210</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>220</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <v>240</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <v>230</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="28"/>
-      <c r="O17" s="43">
+      <c r="K17" s="21"/>
+      <c r="L17" s="23"/>
+      <c r="O17" s="38">
         <v>700</v>
       </c>
-      <c r="P17" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="70">
-        <v>0</v>
-      </c>
-      <c r="R17" s="70">
-        <v>0</v>
-      </c>
-      <c r="S17" s="71">
-        <v>0</v>
-      </c>
-      <c r="T17" s="173">
+      <c r="P17" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="63">
+        <v>0</v>
+      </c>
+      <c r="R17" s="63">
+        <v>0</v>
+      </c>
+      <c r="S17" s="64">
+        <v>0</v>
+      </c>
+      <c r="T17" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U17" s="28"/>
+      <c r="U17" s="23"/>
     </row>
     <row r="18" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="28"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="173">
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="23"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="128">
         <f>SUM(P10:P17)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="173">
+      <c r="Q18" s="128">
         <f t="shared" ref="Q18:S18" si="1">SUM(Q10:Q17)</f>
         <v>1</v>
       </c>
-      <c r="R18" s="173">
+      <c r="R18" s="128">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S18" s="173">
+      <c r="S18" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T18" s="26"/>
-      <c r="U18" s="28"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="23"/>
     </row>
     <row r="19" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="57">
         <f>F17</f>
         <v>700</v>
       </c>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="174"/>
-      <c r="L19" s="42"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="173" t="s">
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="37"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="Q19" s="173" t="s">
+      <c r="Q19" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="R19" s="173" t="s">
+      <c r="R19" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="S19" s="173" t="s">
+      <c r="S19" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="T19" s="26"/>
-      <c r="U19" s="28"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="23"/>
     </row>
     <row r="20" spans="6:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="O20" s="27"/>
-      <c r="P20" s="173">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="173">
-        <v>1</v>
-      </c>
-      <c r="R20" s="173">
-        <v>1</v>
-      </c>
-      <c r="S20" s="173">
-        <v>1</v>
-      </c>
-      <c r="T20" s="26"/>
-      <c r="U20" s="28"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="128">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="128">
+        <v>1</v>
+      </c>
+      <c r="R20" s="128">
+        <v>1</v>
+      </c>
+      <c r="S20" s="128">
+        <v>1</v>
+      </c>
+      <c r="T20" s="21"/>
+      <c r="U20" s="23"/>
     </row>
     <row r="21" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="O21" s="27"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="28"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="22" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="27"/>
-      <c r="P22" s="173"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="173"/>
-      <c r="S22" s="173"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="28"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="23"/>
     </row>
     <row r="23" spans="6:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O23" s="182" t="s">
+      <c r="O23" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="179"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="28"/>
+      <c r="P23" s="169"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="170"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="23"/>
     </row>
     <row r="24" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="183">
+      <c r="O24" s="133">
         <f>SUM(T10:T17)</f>
         <v>700</v>
       </c>
-      <c r="P24" s="180" t="s">
+      <c r="P24" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="Q24" s="181">
+      <c r="Q24" s="132">
         <f>G19</f>
         <v>700</v>
       </c>
-      <c r="R24" s="80"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="28"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="23"/>
     </row>
     <row r="25" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O25" s="27"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="28"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="23"/>
     </row>
     <row r="26" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O26" s="175" t="s">
+      <c r="O26" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="177">
+      <c r="P26" s="167"/>
+      <c r="Q26" s="130">
         <f>SUMPRODUCT(P10:S17,G10:J17)</f>
         <v>270</v>
       </c>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="42"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="37"/>
     </row>
     <row r="27" spans="6:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="56"/>
+      <c r="G35" s="49"/>
     </row>
   </sheetData>
   <scenarios current="0">
     <scenario name="fsdf" count="4" user="Bronnikov Egor" comment="Автор: Bronnikov Egor , 5/22/2022">
-      <inputCells r="P10" val="1" numFmtId="169"/>
-      <inputCells r="Q10" val="1" numFmtId="169"/>
+      <inputCells r="P10" val="1" numFmtId="164"/>
+      <inputCells r="Q10" val="1" numFmtId="164"/>
       <inputCells r="R10" val="1" numFmtId="1"/>
       <inputCells r="S10" val="1" numFmtId="1"/>
     </scenario>
@@ -6701,50 +6701,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="43" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="43" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="43" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6764,30 +6764,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="47">
         <v>270</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="47">
         <v>270</v>
       </c>
     </row>
@@ -6797,563 +6797,563 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="55">
-        <v>0</v>
-      </c>
-      <c r="E21" s="55">
-        <v>0</v>
-      </c>
-      <c r="F21" s="53" t="s">
+      <c r="D21" s="48">
+        <v>0</v>
+      </c>
+      <c r="E21" s="48">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="55">
-        <v>0</v>
-      </c>
-      <c r="E22" s="55">
-        <v>0</v>
-      </c>
-      <c r="F22" s="53" t="s">
+      <c r="D22" s="48">
+        <v>0</v>
+      </c>
+      <c r="E22" s="48">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="55">
-        <v>0</v>
-      </c>
-      <c r="E23" s="55">
-        <v>0</v>
-      </c>
-      <c r="F23" s="53" t="s">
+      <c r="D23" s="48">
+        <v>0</v>
+      </c>
+      <c r="E23" s="48">
+        <v>0</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="55">
-        <v>0</v>
-      </c>
-      <c r="E24" s="55">
-        <v>0</v>
-      </c>
-      <c r="F24" s="53" t="s">
+      <c r="D24" s="48">
+        <v>0</v>
+      </c>
+      <c r="E24" s="48">
+        <v>0</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="55">
-        <v>0</v>
-      </c>
-      <c r="E25" s="55">
-        <v>0</v>
-      </c>
-      <c r="F25" s="53" t="s">
+      <c r="D25" s="48">
+        <v>0</v>
+      </c>
+      <c r="E25" s="48">
+        <v>0</v>
+      </c>
+      <c r="F25" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="55">
-        <v>1</v>
-      </c>
-      <c r="E26" s="55">
-        <v>1</v>
-      </c>
-      <c r="F26" s="53" t="s">
+      <c r="D26" s="48">
+        <v>1</v>
+      </c>
+      <c r="E26" s="48">
+        <v>1</v>
+      </c>
+      <c r="F26" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="55">
-        <v>0</v>
-      </c>
-      <c r="E27" s="55">
-        <v>0</v>
-      </c>
-      <c r="F27" s="53" t="s">
+      <c r="D27" s="48">
+        <v>0</v>
+      </c>
+      <c r="E27" s="48">
+        <v>0</v>
+      </c>
+      <c r="F27" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="55">
-        <v>0</v>
-      </c>
-      <c r="E28" s="55">
-        <v>0</v>
-      </c>
-      <c r="F28" s="53" t="s">
+      <c r="D28" s="48">
+        <v>0</v>
+      </c>
+      <c r="E28" s="48">
+        <v>0</v>
+      </c>
+      <c r="F28" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="55">
-        <v>0</v>
-      </c>
-      <c r="E29" s="55">
-        <v>0</v>
-      </c>
-      <c r="F29" s="53" t="s">
+      <c r="D29" s="48">
+        <v>0</v>
+      </c>
+      <c r="E29" s="48">
+        <v>0</v>
+      </c>
+      <c r="F29" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="55">
-        <v>0</v>
-      </c>
-      <c r="E30" s="55">
-        <v>0</v>
-      </c>
-      <c r="F30" s="53" t="s">
+      <c r="D30" s="48">
+        <v>0</v>
+      </c>
+      <c r="E30" s="48">
+        <v>0</v>
+      </c>
+      <c r="F30" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="55">
-        <v>0</v>
-      </c>
-      <c r="E31" s="55">
-        <v>0</v>
-      </c>
-      <c r="F31" s="53" t="s">
+      <c r="D31" s="48">
+        <v>0</v>
+      </c>
+      <c r="E31" s="48">
+        <v>0</v>
+      </c>
+      <c r="F31" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="55">
-        <v>0</v>
-      </c>
-      <c r="E32" s="55">
-        <v>0</v>
-      </c>
-      <c r="F32" s="53" t="s">
+      <c r="D32" s="48">
+        <v>0</v>
+      </c>
+      <c r="E32" s="48">
+        <v>0</v>
+      </c>
+      <c r="F32" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="55">
-        <v>0</v>
-      </c>
-      <c r="E33" s="55">
-        <v>0</v>
-      </c>
-      <c r="F33" s="53" t="s">
+      <c r="D33" s="48">
+        <v>0</v>
+      </c>
+      <c r="E33" s="48">
+        <v>0</v>
+      </c>
+      <c r="F33" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="55">
-        <v>0</v>
-      </c>
-      <c r="E34" s="55">
-        <v>0</v>
-      </c>
-      <c r="F34" s="53" t="s">
+      <c r="D34" s="48">
+        <v>0</v>
+      </c>
+      <c r="E34" s="48">
+        <v>0</v>
+      </c>
+      <c r="F34" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="55">
-        <v>0</v>
-      </c>
-      <c r="E35" s="55">
-        <v>0</v>
-      </c>
-      <c r="F35" s="53" t="s">
+      <c r="D35" s="48">
+        <v>0</v>
+      </c>
+      <c r="E35" s="48">
+        <v>0</v>
+      </c>
+      <c r="F35" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="55">
-        <v>0</v>
-      </c>
-      <c r="E36" s="55">
-        <v>0</v>
-      </c>
-      <c r="F36" s="53" t="s">
+      <c r="D36" s="48">
+        <v>0</v>
+      </c>
+      <c r="E36" s="48">
+        <v>0</v>
+      </c>
+      <c r="F36" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="55">
-        <v>0</v>
-      </c>
-      <c r="E37" s="55">
-        <v>0</v>
-      </c>
-      <c r="F37" s="53" t="s">
+      <c r="D37" s="48">
+        <v>0</v>
+      </c>
+      <c r="E37" s="48">
+        <v>0</v>
+      </c>
+      <c r="F37" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="55">
-        <v>0</v>
-      </c>
-      <c r="E38" s="55">
-        <v>0</v>
-      </c>
-      <c r="F38" s="53" t="s">
+      <c r="D38" s="48">
+        <v>0</v>
+      </c>
+      <c r="E38" s="48">
+        <v>0</v>
+      </c>
+      <c r="F38" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="55">
-        <v>0</v>
-      </c>
-      <c r="E39" s="55">
-        <v>0</v>
-      </c>
-      <c r="F39" s="53" t="s">
+      <c r="D39" s="48">
+        <v>0</v>
+      </c>
+      <c r="E39" s="48">
+        <v>0</v>
+      </c>
+      <c r="F39" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="55">
-        <v>0</v>
-      </c>
-      <c r="E40" s="55">
-        <v>0</v>
-      </c>
-      <c r="F40" s="53" t="s">
+      <c r="D40" s="48">
+        <v>0</v>
+      </c>
+      <c r="E40" s="48">
+        <v>0</v>
+      </c>
+      <c r="F40" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="55">
-        <v>0</v>
-      </c>
-      <c r="E41" s="55">
-        <v>0</v>
-      </c>
-      <c r="F41" s="53" t="s">
+      <c r="D41" s="48">
+        <v>0</v>
+      </c>
+      <c r="E41" s="48">
+        <v>0</v>
+      </c>
+      <c r="F41" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="55">
-        <v>0</v>
-      </c>
-      <c r="E42" s="55">
-        <v>0</v>
-      </c>
-      <c r="F42" s="53" t="s">
+      <c r="D42" s="48">
+        <v>0</v>
+      </c>
+      <c r="E42" s="48">
+        <v>0</v>
+      </c>
+      <c r="F42" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="55">
-        <v>0</v>
-      </c>
-      <c r="E43" s="55">
-        <v>0</v>
-      </c>
-      <c r="F43" s="53" t="s">
+      <c r="D43" s="48">
+        <v>0</v>
+      </c>
+      <c r="E43" s="48">
+        <v>0</v>
+      </c>
+      <c r="F43" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="55">
-        <v>0</v>
-      </c>
-      <c r="E44" s="55">
-        <v>0</v>
-      </c>
-      <c r="F44" s="53" t="s">
+      <c r="D44" s="48">
+        <v>0</v>
+      </c>
+      <c r="E44" s="48">
+        <v>0</v>
+      </c>
+      <c r="F44" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="55">
-        <v>0</v>
-      </c>
-      <c r="E45" s="55">
-        <v>0</v>
-      </c>
-      <c r="F45" s="53" t="s">
+      <c r="D45" s="48">
+        <v>0</v>
+      </c>
+      <c r="E45" s="48">
+        <v>0</v>
+      </c>
+      <c r="F45" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="55">
-        <v>0</v>
-      </c>
-      <c r="E46" s="55">
-        <v>0</v>
-      </c>
-      <c r="F46" s="53" t="s">
+      <c r="D46" s="48">
+        <v>0</v>
+      </c>
+      <c r="E46" s="48">
+        <v>0</v>
+      </c>
+      <c r="F46" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="55">
-        <v>1</v>
-      </c>
-      <c r="E47" s="55">
-        <v>1</v>
-      </c>
-      <c r="F47" s="53" t="s">
+      <c r="D47" s="48">
+        <v>1</v>
+      </c>
+      <c r="E47" s="48">
+        <v>1</v>
+      </c>
+      <c r="F47" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="55">
-        <v>0</v>
-      </c>
-      <c r="E48" s="55">
-        <v>0</v>
-      </c>
-      <c r="F48" s="53" t="s">
+      <c r="D48" s="48">
+        <v>0</v>
+      </c>
+      <c r="E48" s="48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="55">
-        <v>0</v>
-      </c>
-      <c r="E49" s="55">
-        <v>0</v>
-      </c>
-      <c r="F49" s="53" t="s">
+      <c r="D49" s="48">
+        <v>0</v>
+      </c>
+      <c r="E49" s="48">
+        <v>0</v>
+      </c>
+      <c r="F49" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="55">
-        <v>0</v>
-      </c>
-      <c r="E50" s="55">
-        <v>0</v>
-      </c>
-      <c r="F50" s="53" t="s">
+      <c r="D50" s="48">
+        <v>0</v>
+      </c>
+      <c r="E50" s="48">
+        <v>0</v>
+      </c>
+      <c r="F50" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="55">
-        <v>0</v>
-      </c>
-      <c r="E51" s="55">
-        <v>0</v>
-      </c>
-      <c r="F51" s="53" t="s">
+      <c r="D51" s="48">
+        <v>0</v>
+      </c>
+      <c r="E51" s="48">
+        <v>0</v>
+      </c>
+      <c r="F51" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="54">
-        <v>0</v>
-      </c>
-      <c r="E52" s="54">
-        <v>0</v>
-      </c>
-      <c r="F52" s="51" t="s">
+      <c r="D52" s="47">
+        <v>0</v>
+      </c>
+      <c r="E52" s="47">
+        <v>0</v>
+      </c>
+      <c r="F52" s="44" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7363,134 +7363,134 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F56" s="52" t="s">
+      <c r="F56" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="52" t="s">
+      <c r="G56" s="45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="55">
+      <c r="D57" s="48">
         <v>700</v>
       </c>
-      <c r="E57" s="53" t="s">
+      <c r="E57" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="F57" s="53" t="s">
+      <c r="F57" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="53">
+      <c r="G57" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="55">
-        <v>0</v>
-      </c>
-      <c r="E58" s="53" t="s">
+      <c r="D58" s="48">
+        <v>0</v>
+      </c>
+      <c r="E58" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="G58" s="53">
+      <c r="G58" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="55">
-        <v>1</v>
-      </c>
-      <c r="E59" s="53" t="s">
+      <c r="D59" s="48">
+        <v>1</v>
+      </c>
+      <c r="E59" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="F59" s="53" t="s">
+      <c r="F59" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="53">
+      <c r="G59" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="55">
-        <v>1</v>
-      </c>
-      <c r="E60" s="53" t="s">
+      <c r="D60" s="48">
+        <v>1</v>
+      </c>
+      <c r="E60" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="G60" s="53">
+      <c r="G60" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C61" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D61" s="55">
-        <v>0</v>
-      </c>
-      <c r="E61" s="53" t="s">
+      <c r="D61" s="48">
+        <v>0</v>
+      </c>
+      <c r="E61" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F61" s="53" t="s">
+      <c r="F61" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="G61" s="53">
+      <c r="G61" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7504,958 +7504,963 @@
   </sheetPr>
   <dimension ref="G9:AX38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="3.7109375" style="21"/>
-    <col min="4" max="6" width="3.7109375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.7109375" style="21"/>
-    <col min="18" max="18" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" style="21" customWidth="1"/>
-    <col min="23" max="23" width="5.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.7109375" style="21"/>
-    <col min="32" max="32" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" style="21" customWidth="1"/>
-    <col min="34" max="34" width="4.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14" style="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="39" max="42" width="3.7109375" style="21"/>
-    <col min="43" max="43" width="3.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.7109375" style="21" customWidth="1"/>
-    <col min="46" max="46" width="4.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" style="21" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="3.7109375" style="21"/>
+    <col min="1" max="3" width="3.7109375" style="19"/>
+    <col min="4" max="6" width="3.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="3.7109375" style="19"/>
+    <col min="18" max="18" width="5.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" style="19" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.7109375" style="19"/>
+    <col min="32" max="32" width="5.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" style="19" customWidth="1"/>
+    <col min="34" max="34" width="4.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8" style="19" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" style="19" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="3.7109375" style="19"/>
+    <col min="43" max="43" width="3.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.7109375" style="19" customWidth="1"/>
+    <col min="46" max="46" width="4.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" style="19" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="3.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="9" spans="7:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="42" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="7:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="G14" s="129" t="s">
+      <c r="G14" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H14" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="130"/>
-      <c r="J14" s="131"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="181"/>
     </row>
     <row r="15" spans="7:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="100" t="s">
+      <c r="I15" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="102" t="s">
+      <c r="J15" s="84" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="113">
-        <v>1</v>
-      </c>
-      <c r="H16" s="114">
+      <c r="G16" s="95">
+        <v>1</v>
+      </c>
+      <c r="H16" s="96">
         <v>3.22</v>
       </c>
-      <c r="I16" s="114">
+      <c r="I16" s="96">
         <v>3.33</v>
       </c>
-      <c r="J16" s="115">
+      <c r="J16" s="97">
         <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="17" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="116">
+      <c r="G17" s="98">
         <v>2</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="70">
         <v>3.57</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="70">
         <v>4.87</v>
       </c>
-      <c r="J17" s="78">
+      <c r="J17" s="71">
         <v>7.64</v>
       </c>
-      <c r="T17" s="84" t="s">
+      <c r="T17" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="86"/>
-      <c r="AF17" s="84" t="s">
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="155"/>
+      <c r="AF17" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="85"/>
-      <c r="AL17" s="86"/>
-      <c r="AR17" s="84" t="s">
+      <c r="AG17" s="154"/>
+      <c r="AH17" s="154"/>
+      <c r="AI17" s="154"/>
+      <c r="AJ17" s="154"/>
+      <c r="AK17" s="154"/>
+      <c r="AL17" s="155"/>
+      <c r="AR17" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="AS17" s="85"/>
-      <c r="AT17" s="85"/>
-      <c r="AU17" s="85"/>
-      <c r="AV17" s="85"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="86"/>
+      <c r="AS17" s="154"/>
+      <c r="AT17" s="154"/>
+      <c r="AU17" s="154"/>
+      <c r="AV17" s="154"/>
+      <c r="AW17" s="154"/>
+      <c r="AX17" s="155"/>
     </row>
     <row r="18" spans="7:50" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G18" s="116">
+      <c r="G18" s="98">
         <v>3</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="70">
         <v>4</v>
       </c>
-      <c r="I18" s="77">
+      <c r="I18" s="70">
         <v>5.26</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="71">
         <v>10.25</v>
       </c>
-      <c r="T18" s="132" t="s">
+      <c r="T18" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="U18" s="133" t="s">
+      <c r="U18" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="134"/>
-      <c r="W18" s="133" t="s">
+      <c r="V18" s="185"/>
+      <c r="W18" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="X18" s="134"/>
-      <c r="Y18" s="133" t="s">
+      <c r="X18" s="185"/>
+      <c r="Y18" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="135"/>
-      <c r="AF18" s="136" t="s">
+      <c r="Z18" s="186"/>
+      <c r="AF18" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="AG18" s="137" t="s">
+      <c r="AG18" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="AH18" s="137" t="s">
+      <c r="AH18" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AI18" s="137" t="s">
+      <c r="AI18" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="AJ18" s="137" t="s">
+      <c r="AJ18" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="AK18" s="137" t="s">
+      <c r="AK18" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="AL18" s="138" t="s">
+      <c r="AL18" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="AR18" s="139" t="s">
+      <c r="AR18" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="AS18" s="140" t="s">
+      <c r="AS18" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="AT18" s="140" t="s">
+      <c r="AT18" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AU18" s="140" t="s">
+      <c r="AU18" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="AV18" s="140" t="s">
+      <c r="AV18" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="AW18" s="140" t="s">
+      <c r="AW18" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="AX18" s="141" t="s">
+      <c r="AX18" s="113" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="7:50" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="G19" s="116">
+      <c r="G19" s="98">
         <v>4</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="70">
         <v>4.12</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="70">
         <v>7.34</v>
       </c>
-      <c r="J19" s="78">
+      <c r="J19" s="71">
         <v>15.93</v>
       </c>
-      <c r="T19" s="142"/>
-      <c r="U19" s="32" t="s">
+      <c r="T19" s="183"/>
+      <c r="U19" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="V19" s="32" t="s">
+      <c r="V19" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="W19" s="32" t="s">
+      <c r="W19" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="X19" s="32" t="s">
+      <c r="X19" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="Y19" s="32" t="s">
+      <c r="Y19" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="Z19" s="33" t="s">
+      <c r="Z19" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AF19" s="143">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="144">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="145">
+      <c r="AF19" s="187">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="114">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="115">
         <f>AF19-AG19</f>
         <v>1</v>
       </c>
-      <c r="AI19" s="145">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="145">
+      <c r="AI19" s="115">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="115">
         <f>V20</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="AK19" s="145">
+      <c r="AK19" s="115">
         <f>AJ19+AI19</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="AL19" s="146">
+      <c r="AL19" s="177">
         <f>MAX(AK19:AK20)</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="AR19" s="147">
+      <c r="AR19" s="174">
         <v>5</v>
       </c>
-      <c r="AS19" s="144">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="145">
-        <f>$AF$33-AS19</f>
+      <c r="AS19" s="114">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="115">
+        <f t="shared" ref="AT19:AT24" si="0">$AF$33-AS19</f>
         <v>5</v>
       </c>
-      <c r="AU19" s="145">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="145" cm="1">
+      <c r="AU19" s="115">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="115" cm="1">
         <f t="array" ref="AV19">INDEX($X$20:$X$24,AT19)</f>
         <v>19.260000000000002</v>
       </c>
-      <c r="AW19" s="145">
+      <c r="AW19" s="115">
         <f>AU19+AV19</f>
         <v>19.260000000000002</v>
       </c>
-      <c r="AX19" s="148">
+      <c r="AX19" s="171">
         <f>MAX(AW19:AW24)</f>
         <v>19.260000000000002</v>
       </c>
     </row>
     <row r="20" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="117">
+      <c r="G20" s="99">
         <v>5</v>
       </c>
-      <c r="H20" s="82">
+      <c r="H20" s="75">
         <v>4.8499999999999996</v>
       </c>
-      <c r="I20" s="82">
+      <c r="I20" s="75">
         <v>9.49</v>
       </c>
-      <c r="J20" s="83">
+      <c r="J20" s="76">
         <v>16.12</v>
       </c>
-      <c r="T20" s="149">
-        <v>1</v>
-      </c>
-      <c r="U20" s="77">
-        <v>1</v>
-      </c>
-      <c r="V20" s="77">
+      <c r="T20" s="116">
+        <v>1</v>
+      </c>
+      <c r="U20" s="70">
+        <v>1</v>
+      </c>
+      <c r="V20" s="70">
         <v>4.2699999999999996</v>
       </c>
-      <c r="W20" s="77">
-        <v>0</v>
-      </c>
-      <c r="X20" s="77">
+      <c r="W20" s="70">
+        <v>0</v>
+      </c>
+      <c r="X20" s="70">
         <v>4.2699999999999996</v>
       </c>
-      <c r="Y20" s="150" t="s">
+      <c r="Y20" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="Z20" s="151" t="s">
+      <c r="Z20" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="AF20" s="152"/>
-      <c r="AG20" s="100">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="100">
+      <c r="AF20" s="189"/>
+      <c r="AG20" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="82">
         <f>AF19-AG20</f>
         <v>0</v>
       </c>
-      <c r="AI20" s="100">
+      <c r="AI20" s="82">
         <f>I16</f>
         <v>3.33</v>
       </c>
-      <c r="AJ20" s="100">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="100">
+      <c r="AJ20" s="82">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="82">
         <f>AJ20+AI20</f>
         <v>3.33</v>
       </c>
-      <c r="AL20" s="153"/>
-      <c r="AR20" s="154"/>
-      <c r="AS20" s="32">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="32">
-        <f>$AF$33-AS20</f>
+      <c r="AL20" s="179"/>
+      <c r="AR20" s="175"/>
+      <c r="AS20" s="27">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="27">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AU20" s="32" cm="1">
+      <c r="AU20" s="27" cm="1">
         <f t="array" ref="AU20">INDEX($H$16:$H$20,AS20)</f>
         <v>3.22</v>
       </c>
-      <c r="AV20" s="32" cm="1">
+      <c r="AV20" s="27" cm="1">
         <f t="array" ref="AV20">INDEX($X$20:$X$24,AT20)</f>
         <v>15.93</v>
       </c>
-      <c r="AW20" s="32">
-        <f t="shared" ref="AW20:AW24" si="0">AU20+AV20</f>
+      <c r="AW20" s="27">
+        <f t="shared" ref="AW20:AW24" si="1">AU20+AV20</f>
         <v>19.149999999999999</v>
       </c>
-      <c r="AX20" s="155"/>
+      <c r="AX20" s="172"/>
     </row>
     <row r="21" spans="7:50" x14ac:dyDescent="0.25">
-      <c r="T21" s="149">
+      <c r="T21" s="116">
         <v>2</v>
       </c>
-      <c r="U21" s="77">
+      <c r="U21" s="70">
         <v>2</v>
       </c>
-      <c r="V21" s="77">
+      <c r="V21" s="70">
         <v>7.64</v>
       </c>
-      <c r="W21" s="77">
-        <v>0</v>
-      </c>
-      <c r="X21" s="77">
+      <c r="W21" s="70">
+        <v>0</v>
+      </c>
+      <c r="X21" s="70">
         <v>7.64</v>
       </c>
-      <c r="Y21" s="150" t="s">
+      <c r="Y21" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="Z21" s="151" t="s">
+      <c r="Z21" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="AF21" s="143">
+      <c r="AF21" s="187">
         <v>2</v>
       </c>
-      <c r="AG21" s="144">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="145">
+      <c r="AG21" s="114">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="115">
         <f>$AF$21-AG21</f>
         <v>2</v>
       </c>
-      <c r="AI21" s="145">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="145" cm="1">
+      <c r="AI21" s="115">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="115" cm="1">
         <f t="array" ref="AJ21">INDEX($V$20:$V$24,AH21)</f>
         <v>7.64</v>
       </c>
-      <c r="AK21" s="145">
+      <c r="AK21" s="115">
         <f>AJ21+AI21</f>
         <v>7.64</v>
       </c>
-      <c r="AL21" s="146">
+      <c r="AL21" s="177">
         <f>MAX(AK21:AK23)</f>
         <v>7.64</v>
       </c>
-      <c r="AR21" s="154"/>
-      <c r="AS21" s="32">
+      <c r="AR21" s="175"/>
+      <c r="AS21" s="27">
         <v>2</v>
       </c>
-      <c r="AT21" s="32">
-        <f>$AF$33-AS21</f>
+      <c r="AT21" s="27">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AU21" s="32" cm="1">
+      <c r="AU21" s="27" cm="1">
         <f t="array" ref="AU21">INDEX($H$16:$H$20,AS21)</f>
         <v>3.57</v>
       </c>
-      <c r="AV21" s="32" cm="1">
+      <c r="AV21" s="27" cm="1">
         <f t="array" ref="AV21">INDEX($X$20:$X$24,AT21)</f>
         <v>10.97</v>
       </c>
-      <c r="AW21" s="32">
-        <f t="shared" si="0"/>
+      <c r="AW21" s="27">
+        <f t="shared" si="1"/>
         <v>14.540000000000001</v>
       </c>
-      <c r="AX21" s="155"/>
+      <c r="AX21" s="172"/>
     </row>
     <row r="22" spans="7:50" x14ac:dyDescent="0.25">
-      <c r="T22" s="149">
+      <c r="T22" s="116">
         <v>3</v>
       </c>
-      <c r="U22" s="77">
+      <c r="U22" s="70">
         <v>3</v>
       </c>
-      <c r="V22" s="77">
+      <c r="V22" s="70">
         <v>10.25</v>
       </c>
-      <c r="W22" s="77">
-        <v>1</v>
-      </c>
-      <c r="X22" s="77">
+      <c r="W22" s="70">
+        <v>1</v>
+      </c>
+      <c r="X22" s="70">
         <v>10.97</v>
       </c>
-      <c r="Y22" s="150" t="s">
+      <c r="Y22" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="Z22" s="151" t="s">
+      <c r="Z22" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="32">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="32">
+      <c r="AF22" s="188"/>
+      <c r="AG22" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="27">
         <f>$AF$21-AG22</f>
         <v>1</v>
       </c>
-      <c r="AI22" s="32" cm="1">
+      <c r="AI22" s="27" cm="1">
         <f t="array" ref="AI22">INDEX($I$16:$I$20,AG22)</f>
         <v>3.33</v>
       </c>
-      <c r="AJ22" s="32" cm="1">
+      <c r="AJ22" s="27" cm="1">
         <f t="array" ref="AJ22">INDEX($V$20:$V$24,AH22)</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="AK22" s="32">
-        <f t="shared" ref="AK22:AK23" si="1">AJ22+AI22</f>
+      <c r="AK22" s="27">
+        <f t="shared" ref="AK22:AK23" si="2">AJ22+AI22</f>
         <v>7.6</v>
       </c>
-      <c r="AL22" s="157"/>
-      <c r="AR22" s="154"/>
-      <c r="AS22" s="32">
+      <c r="AL22" s="178"/>
+      <c r="AR22" s="175"/>
+      <c r="AS22" s="27">
         <v>3</v>
       </c>
-      <c r="AT22" s="32">
-        <f>$AF$33-AS22</f>
+      <c r="AT22" s="27">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AU22" s="32" cm="1">
+      <c r="AU22" s="27" cm="1">
         <f t="array" ref="AU22">INDEX($H$16:$H$20,AS22)</f>
         <v>4</v>
       </c>
-      <c r="AV22" s="32" cm="1">
+      <c r="AV22" s="27" cm="1">
         <f t="array" ref="AV22">INDEX($X$20:$X$24,AT22)</f>
         <v>7.64</v>
       </c>
-      <c r="AW22" s="32">
-        <f t="shared" si="0"/>
+      <c r="AW22" s="27">
+        <f t="shared" si="1"/>
         <v>11.64</v>
       </c>
-      <c r="AX22" s="155"/>
+      <c r="AX22" s="172"/>
     </row>
     <row r="23" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T23" s="149">
+      <c r="T23" s="116">
         <v>4</v>
       </c>
-      <c r="U23" s="77">
+      <c r="U23" s="70">
         <v>4</v>
       </c>
-      <c r="V23" s="77">
+      <c r="V23" s="70">
         <v>15.93</v>
       </c>
-      <c r="W23" s="77">
-        <v>0</v>
-      </c>
-      <c r="X23" s="77">
+      <c r="W23" s="70">
+        <v>0</v>
+      </c>
+      <c r="X23" s="70">
         <v>15.93</v>
       </c>
-      <c r="Y23" s="150" t="s">
+      <c r="Y23" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="Z23" s="151" t="s">
+      <c r="Z23" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="AF23" s="152"/>
-      <c r="AG23" s="100">
+      <c r="AF23" s="189"/>
+      <c r="AG23" s="82">
         <v>2</v>
       </c>
-      <c r="AH23" s="100">
+      <c r="AH23" s="82">
         <f>$AF$21-AG23</f>
         <v>0</v>
       </c>
-      <c r="AI23" s="100" cm="1">
+      <c r="AI23" s="82" cm="1">
         <f t="array" ref="AI23">INDEX($I$16:$I$20,AG23)</f>
         <v>4.87</v>
       </c>
-      <c r="AJ23" s="100">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="100">
-        <f t="shared" si="1"/>
+      <c r="AJ23" s="82">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="82">
+        <f t="shared" si="2"/>
         <v>4.87</v>
       </c>
-      <c r="AL23" s="153"/>
-      <c r="AR23" s="154"/>
-      <c r="AS23" s="32">
+      <c r="AL23" s="179"/>
+      <c r="AR23" s="175"/>
+      <c r="AS23" s="27">
         <v>4</v>
       </c>
-      <c r="AT23" s="32">
-        <f>$AF$33-AS23</f>
-        <v>1</v>
-      </c>
-      <c r="AU23" s="32" cm="1">
+      <c r="AT23" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AU23" s="27" cm="1">
         <f t="array" ref="AU23">INDEX($H$16:$H$20,AS23)</f>
         <v>4.12</v>
       </c>
-      <c r="AV23" s="32" cm="1">
+      <c r="AV23" s="27" cm="1">
         <f t="array" ref="AV23">INDEX($X$20:$X$24,AT23)</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="AW23" s="32">
-        <f t="shared" si="0"/>
+      <c r="AW23" s="27">
+        <f t="shared" si="1"/>
         <v>8.39</v>
       </c>
-      <c r="AX23" s="155"/>
+      <c r="AX23" s="172"/>
     </row>
     <row r="24" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T24" s="158">
+      <c r="T24" s="119">
         <v>5</v>
       </c>
-      <c r="U24" s="82">
+      <c r="U24" s="75">
         <v>5</v>
       </c>
-      <c r="V24" s="82">
+      <c r="V24" s="75">
         <v>16.12</v>
       </c>
-      <c r="W24" s="82">
-        <v>1</v>
-      </c>
-      <c r="X24" s="82">
+      <c r="W24" s="75">
+        <v>1</v>
+      </c>
+      <c r="X24" s="75">
         <v>19.260000000000002</v>
       </c>
-      <c r="Y24" s="82">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="83">
+      <c r="Y24" s="75">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="76">
         <v>19.260000000000002</v>
       </c>
-      <c r="AF24" s="147">
+      <c r="AF24" s="174">
         <v>3</v>
       </c>
-      <c r="AG24" s="145">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="145">
+      <c r="AG24" s="115">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="115">
         <f>$AF$24-AG24</f>
         <v>3</v>
       </c>
-      <c r="AI24" s="145">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="145" cm="1">
+      <c r="AI24" s="115">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="115" cm="1">
         <f t="array" ref="AJ24">INDEX($V$20:$V$24,AH24)</f>
         <v>10.25</v>
       </c>
-      <c r="AK24" s="145">
+      <c r="AK24" s="115">
         <f>AI24+AJ24</f>
         <v>10.25</v>
       </c>
-      <c r="AL24" s="146">
+      <c r="AL24" s="177">
         <f>MAX(AK24:AK27)</f>
         <v>10.969999999999999</v>
       </c>
-      <c r="AR24" s="159"/>
-      <c r="AS24" s="100">
+      <c r="AR24" s="176"/>
+      <c r="AS24" s="82">
         <v>5</v>
       </c>
-      <c r="AT24" s="100">
-        <f>$AF$33-AS24</f>
-        <v>0</v>
-      </c>
-      <c r="AU24" s="100" cm="1">
+      <c r="AT24" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="82" cm="1">
         <f t="array" ref="AU24">INDEX($H$16:$H$20,AS24)</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="AV24" s="100">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="100">
-        <f t="shared" si="0"/>
+      <c r="AV24" s="82">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="82">
+        <f t="shared" si="1"/>
         <v>4.8499999999999996</v>
       </c>
-      <c r="AX24" s="160"/>
+      <c r="AX24" s="173"/>
     </row>
     <row r="25" spans="7:50" x14ac:dyDescent="0.25">
-      <c r="AF25" s="154"/>
-      <c r="AG25" s="161">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="32">
+      <c r="AF25" s="175"/>
+      <c r="AG25" s="120">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="27">
         <f>$AF$24-AG25</f>
         <v>2</v>
       </c>
-      <c r="AI25" s="32" cm="1">
+      <c r="AI25" s="27" cm="1">
         <f t="array" ref="AI25">INDEX($I$16:$I$20,AG25)</f>
         <v>3.33</v>
       </c>
-      <c r="AJ25" s="32" cm="1">
+      <c r="AJ25" s="27" cm="1">
         <f t="array" ref="AJ25">INDEX($V$20:$V$24,AH25)</f>
         <v>7.64</v>
       </c>
-      <c r="AK25" s="32">
-        <f t="shared" ref="AK25:AK27" si="2">AI25+AJ25</f>
+      <c r="AK25" s="27">
+        <f t="shared" ref="AK25:AK27" si="3">AI25+AJ25</f>
         <v>10.969999999999999</v>
       </c>
-      <c r="AL25" s="157"/>
+      <c r="AL25" s="178"/>
     </row>
     <row r="26" spans="7:50" x14ac:dyDescent="0.25">
-      <c r="AF26" s="154"/>
-      <c r="AG26" s="32">
+      <c r="AF26" s="175"/>
+      <c r="AG26" s="27">
         <v>2</v>
       </c>
-      <c r="AH26" s="32">
+      <c r="AH26" s="27">
         <f>$AF$24-AG26</f>
         <v>1</v>
       </c>
-      <c r="AI26" s="32" cm="1">
+      <c r="AI26" s="27" cm="1">
         <f t="array" ref="AI26">INDEX($I$16:$I$20,AG26)</f>
         <v>4.87</v>
       </c>
-      <c r="AJ26" s="32" cm="1">
+      <c r="AJ26" s="27" cm="1">
         <f t="array" ref="AJ26">INDEX($V$20:$V$24,AH26)</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="AK26" s="32">
-        <f t="shared" si="2"/>
+      <c r="AK26" s="27">
+        <f t="shared" si="3"/>
         <v>9.14</v>
       </c>
-      <c r="AL26" s="157"/>
+      <c r="AL26" s="178"/>
     </row>
     <row r="27" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AF27" s="159"/>
-      <c r="AG27" s="100">
+      <c r="AF27" s="176"/>
+      <c r="AG27" s="82">
         <v>3</v>
       </c>
-      <c r="AH27" s="100">
+      <c r="AH27" s="82">
         <f>$AF$24-AG27</f>
         <v>0</v>
       </c>
-      <c r="AI27" s="100" cm="1">
+      <c r="AI27" s="82" cm="1">
         <f t="array" ref="AI27">INDEX($I$16:$I$20,AG27)</f>
         <v>5.26</v>
       </c>
-      <c r="AJ27" s="100">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="100">
-        <f t="shared" si="2"/>
+      <c r="AJ27" s="82">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="82">
+        <f t="shared" si="3"/>
         <v>5.26</v>
       </c>
-      <c r="AL27" s="153"/>
+      <c r="AL27" s="179"/>
     </row>
     <row r="28" spans="7:50" x14ac:dyDescent="0.25">
-      <c r="AF28" s="147">
+      <c r="AF28" s="174">
         <v>4</v>
       </c>
-      <c r="AG28" s="144">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="145">
+      <c r="AG28" s="114">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="115">
         <f>$AF$28-AG28</f>
         <v>4</v>
       </c>
-      <c r="AI28" s="145">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="145" cm="1">
+      <c r="AI28" s="115">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="115" cm="1">
         <f t="array" ref="AJ28">INDEX($V$20:$V$24,AH28)</f>
         <v>15.93</v>
       </c>
-      <c r="AK28" s="145">
+      <c r="AK28" s="115">
         <f>AI28+AJ28</f>
         <v>15.93</v>
       </c>
-      <c r="AL28" s="146">
+      <c r="AL28" s="177">
         <f>MAX(AK28:AK32)</f>
         <v>15.93</v>
       </c>
     </row>
     <row r="29" spans="7:50" x14ac:dyDescent="0.25">
-      <c r="AF29" s="154"/>
-      <c r="AG29" s="32">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="32">
+      <c r="AF29" s="175"/>
+      <c r="AG29" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="27">
         <f>$AF$28-AG29</f>
         <v>3</v>
       </c>
-      <c r="AI29" s="32" cm="1">
+      <c r="AI29" s="27" cm="1">
         <f t="array" ref="AI29">INDEX($I$16:$I$20,AG29)</f>
         <v>3.33</v>
       </c>
-      <c r="AJ29" s="32" cm="1">
+      <c r="AJ29" s="27" cm="1">
         <f t="array" ref="AJ29">INDEX($V$20:$V$24,AH29)</f>
         <v>10.25</v>
       </c>
-      <c r="AK29" s="32">
-        <f t="shared" ref="AK29:AK32" si="3">AI29+AJ29</f>
+      <c r="AK29" s="27">
+        <f t="shared" ref="AK29:AK32" si="4">AI29+AJ29</f>
         <v>13.58</v>
       </c>
-      <c r="AL29" s="157"/>
+      <c r="AL29" s="178"/>
     </row>
     <row r="30" spans="7:50" x14ac:dyDescent="0.25">
-      <c r="AF30" s="154"/>
-      <c r="AG30" s="32">
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="27">
         <v>2</v>
       </c>
-      <c r="AH30" s="32">
+      <c r="AH30" s="27">
         <f>$AF$28-AG30</f>
         <v>2</v>
       </c>
-      <c r="AI30" s="32" cm="1">
+      <c r="AI30" s="27" cm="1">
         <f t="array" ref="AI30">INDEX($I$16:$I$20,AG30)</f>
         <v>4.87</v>
       </c>
-      <c r="AJ30" s="32" cm="1">
+      <c r="AJ30" s="27" cm="1">
         <f t="array" ref="AJ30">INDEX($V$20:$V$24,AH30)</f>
         <v>7.64</v>
       </c>
-      <c r="AK30" s="32">
-        <f t="shared" si="3"/>
+      <c r="AK30" s="27">
+        <f t="shared" si="4"/>
         <v>12.51</v>
       </c>
-      <c r="AL30" s="157"/>
+      <c r="AL30" s="178"/>
     </row>
     <row r="31" spans="7:50" x14ac:dyDescent="0.25">
-      <c r="AF31" s="154"/>
-      <c r="AG31" s="32">
+      <c r="AF31" s="175"/>
+      <c r="AG31" s="27">
         <v>3</v>
       </c>
-      <c r="AH31" s="32">
+      <c r="AH31" s="27">
         <f>$AF$28-AG31</f>
         <v>1</v>
       </c>
-      <c r="AI31" s="32" cm="1">
+      <c r="AI31" s="27" cm="1">
         <f t="array" ref="AI31">INDEX($I$16:$I$20,AG31)</f>
         <v>5.26</v>
       </c>
-      <c r="AJ31" s="32" cm="1">
+      <c r="AJ31" s="27" cm="1">
         <f t="array" ref="AJ31">INDEX($V$20:$V$24,AH31)</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="AK31" s="32">
-        <f t="shared" si="3"/>
+      <c r="AK31" s="27">
+        <f t="shared" si="4"/>
         <v>9.5299999999999994</v>
       </c>
-      <c r="AL31" s="157"/>
+      <c r="AL31" s="178"/>
     </row>
     <row r="32" spans="7:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AF32" s="159"/>
-      <c r="AG32" s="100">
+      <c r="AF32" s="176"/>
+      <c r="AG32" s="82">
         <v>4</v>
       </c>
-      <c r="AH32" s="100">
+      <c r="AH32" s="82">
         <f>$AF$28-AG32</f>
         <v>0</v>
       </c>
-      <c r="AI32" s="100" cm="1">
+      <c r="AI32" s="82" cm="1">
         <f t="array" ref="AI32">INDEX($I$16:$I$20,AG32)</f>
         <v>7.34</v>
       </c>
-      <c r="AJ32" s="100">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="100">
-        <f t="shared" si="3"/>
+      <c r="AJ32" s="82">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="82">
+        <f t="shared" si="4"/>
         <v>7.34</v>
       </c>
-      <c r="AL32" s="153"/>
+      <c r="AL32" s="179"/>
     </row>
     <row r="33" spans="32:38" x14ac:dyDescent="0.25">
-      <c r="AF33" s="147">
+      <c r="AF33" s="174">
         <v>5</v>
       </c>
-      <c r="AG33" s="145">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="145">
-        <f>$AF$33-AG33</f>
+      <c r="AG33" s="115">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="115">
+        <f t="shared" ref="AH33:AH38" si="5">$AF$33-AG33</f>
         <v>5</v>
       </c>
-      <c r="AI33" s="145">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="145" cm="1">
+      <c r="AI33" s="115">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="115" cm="1">
         <f t="array" ref="AJ33">INDEX($V$20:$V$24,AH33)</f>
         <v>16.12</v>
       </c>
-      <c r="AK33" s="145">
+      <c r="AK33" s="115">
         <f>AI33+AJ33</f>
         <v>16.12</v>
       </c>
-      <c r="AL33" s="146">
+      <c r="AL33" s="177">
         <f>MAX(AK33:AK38)</f>
         <v>19.259999999999998</v>
       </c>
     </row>
     <row r="34" spans="32:38" x14ac:dyDescent="0.25">
-      <c r="AF34" s="154"/>
-      <c r="AG34" s="161">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="32">
-        <f>$AF$33-AG34</f>
+      <c r="AF34" s="175"/>
+      <c r="AG34" s="120">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="27">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AI34" s="32" cm="1">
+      <c r="AI34" s="27" cm="1">
         <f t="array" ref="AI34">INDEX($I$16:$I$20,AG34)</f>
         <v>3.33</v>
       </c>
-      <c r="AJ34" s="32" cm="1">
+      <c r="AJ34" s="27" cm="1">
         <f t="array" ref="AJ34">INDEX($V$20:$V$24,AH34)</f>
         <v>15.93</v>
       </c>
-      <c r="AK34" s="32">
-        <f t="shared" ref="AK34:AK38" si="4">AI34+AJ34</f>
+      <c r="AK34" s="27">
+        <f t="shared" ref="AK34:AK38" si="6">AI34+AJ34</f>
         <v>19.259999999999998</v>
       </c>
-      <c r="AL34" s="157"/>
+      <c r="AL34" s="178"/>
     </row>
     <row r="35" spans="32:38" x14ac:dyDescent="0.25">
-      <c r="AF35" s="154"/>
-      <c r="AG35" s="32">
+      <c r="AF35" s="175"/>
+      <c r="AG35" s="27">
         <v>2</v>
       </c>
-      <c r="AH35" s="32">
-        <f>$AF$33-AG35</f>
+      <c r="AH35" s="27">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AI35" s="32" cm="1">
+      <c r="AI35" s="27" cm="1">
         <f t="array" ref="AI35">INDEX($I$16:$I$20,AG35)</f>
         <v>4.87</v>
       </c>
-      <c r="AJ35" s="32" cm="1">
+      <c r="AJ35" s="27" cm="1">
         <f t="array" ref="AJ35">INDEX($V$20:$V$24,AH35)</f>
         <v>10.25</v>
       </c>
-      <c r="AK35" s="32">
-        <f t="shared" si="4"/>
+      <c r="AK35" s="27">
+        <f t="shared" si="6"/>
         <v>15.120000000000001</v>
       </c>
-      <c r="AL35" s="157"/>
+      <c r="AL35" s="178"/>
     </row>
     <row r="36" spans="32:38" x14ac:dyDescent="0.25">
-      <c r="AF36" s="154"/>
-      <c r="AG36" s="32">
+      <c r="AF36" s="175"/>
+      <c r="AG36" s="27">
         <v>3</v>
       </c>
-      <c r="AH36" s="32">
-        <f>$AF$33-AG36</f>
+      <c r="AH36" s="27">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AI36" s="32" cm="1">
+      <c r="AI36" s="27" cm="1">
         <f t="array" ref="AI36">INDEX($I$16:$I$20,AG36)</f>
         <v>5.26</v>
       </c>
-      <c r="AJ36" s="32" cm="1">
+      <c r="AJ36" s="27" cm="1">
         <f t="array" ref="AJ36">INDEX($V$20:$V$24,AH36)</f>
         <v>7.64</v>
       </c>
-      <c r="AK36" s="32">
-        <f t="shared" si="4"/>
+      <c r="AK36" s="27">
+        <f t="shared" si="6"/>
         <v>12.899999999999999</v>
       </c>
-      <c r="AL36" s="157"/>
+      <c r="AL36" s="178"/>
     </row>
     <row r="37" spans="32:38" x14ac:dyDescent="0.25">
-      <c r="AF37" s="154"/>
-      <c r="AG37" s="32">
+      <c r="AF37" s="175"/>
+      <c r="AG37" s="27">
         <v>4</v>
       </c>
-      <c r="AH37" s="32">
-        <f>$AF$33-AG37</f>
-        <v>1</v>
-      </c>
-      <c r="AI37" s="32" cm="1">
+      <c r="AH37" s="27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI37" s="27" cm="1">
         <f t="array" ref="AI37">INDEX($I$16:$I$20,AG37)</f>
         <v>7.34</v>
       </c>
-      <c r="AJ37" s="32" cm="1">
+      <c r="AJ37" s="27" cm="1">
         <f t="array" ref="AJ37">INDEX($V$20:$V$24,AH37)</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="AK37" s="32">
-        <f t="shared" si="4"/>
+      <c r="AK37" s="27">
+        <f t="shared" si="6"/>
         <v>11.61</v>
       </c>
-      <c r="AL37" s="157"/>
+      <c r="AL37" s="178"/>
     </row>
     <row r="38" spans="32:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AF38" s="159"/>
-      <c r="AG38" s="100">
+      <c r="AF38" s="176"/>
+      <c r="AG38" s="82">
         <v>5</v>
       </c>
-      <c r="AH38" s="100">
-        <f>$AF$33-AG38</f>
-        <v>0</v>
-      </c>
-      <c r="AI38" s="100" cm="1">
+      <c r="AH38" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="82" cm="1">
         <f t="array" ref="AI38">INDEX($I$16:$I$20,AG38)</f>
         <v>9.49</v>
       </c>
-      <c r="AJ38" s="100">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="100">
-        <f t="shared" si="4"/>
+      <c r="AJ38" s="82">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="82">
+        <f t="shared" si="6"/>
         <v>9.49</v>
       </c>
-      <c r="AL38" s="153"/>
+      <c r="AL38" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
     <mergeCell ref="AX19:AX24"/>
     <mergeCell ref="AR17:AX17"/>
     <mergeCell ref="AF33:AF38"/>
@@ -8469,11 +8474,6 @@
     <mergeCell ref="AL19:AL20"/>
     <mergeCell ref="AF28:AF32"/>
     <mergeCell ref="AL28:AL32"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
     <mergeCell ref="AF21:AF23"/>
     <mergeCell ref="AF19:AF20"/>
   </mergeCells>
